--- a/Книга1 (3) (1).xlsx
+++ b/Книга1 (3) (1).xlsx
@@ -1,21 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Project-1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B92E4C4-91D0-4026-91A5-DF9C187E059F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="23256" windowHeight="12588" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Зонтик" sheetId="1" r:id="rId1"/>
     <sheet name="Кошка" sheetId="2" r:id="rId2"/>
+    <sheet name="Парабола" sheetId="3" r:id="rId3"/>
+    <sheet name="Тангенс" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>x</t>
   </si>
@@ -43,11 +59,17 @@
   <si>
     <t>y8</t>
   </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>f(x)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -93,12 +115,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -299,6 +324,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AB2B-4015-B973-E1DCDFEB2DC0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -424,6 +454,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AB2B-4015-B973-E1DCDFEB2DC0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -549,6 +584,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AB2B-4015-B973-E1DCDFEB2DC0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -674,6 +714,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-AB2B-4015-B973-E1DCDFEB2DC0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -787,6 +832,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-AB2B-4015-B973-E1DCDFEB2DC0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -900,6 +950,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-AB2B-4015-B973-E1DCDFEB2DC0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -946,7 +1001,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -962,7 +1016,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1693,6 +1747,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-09BA-4E0B-BE1F-92B44A72025F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2298,6 +2357,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-09BA-4E0B-BE1F-92B44A72025F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2786,6 +2850,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-09BA-4E0B-BE1F-92B44A72025F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -3280,6 +3349,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-09BA-4E0B-BE1F-92B44A72025F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -3807,6 +3881,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-09BA-4E0B-BE1F-92B44A72025F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -4262,6 +4341,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-09BA-4E0B-BE1F-92B44A72025F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -4717,6 +4801,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-09BA-4E0B-BE1F-92B44A72025F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -5172,6 +5261,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-09BA-4E0B-BE1F-92B44A72025F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5218,7 +5312,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5231,6 +5324,1864 @@
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Парабола!$A$3:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.60000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.40000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.20000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.60000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Парабола!$B$3:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.64000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0000000000000029E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0000000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.3600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.64000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-58E5-446B-85D6-C5F0684F3D24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1063621535"/>
+        <c:axId val="948997311"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1063621535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="948997311"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="948997311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1063621535"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Тангенс!$A$3:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>-1.57</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.1700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.9700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.77000000000000024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.57000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.37000000000000027</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.17000000000000026</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9999999999999749E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.22999999999999976</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.42999999999999977</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.62999999999999978</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.82999999999999985</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6299999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Тангенс!$B$3:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>-1255.7655915007897</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.9130580704624744</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.3599810913765493</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.4592011276663543</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.96966832796148994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.6409685517111563</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.38786316165584939</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.17165682217014297</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.0009003241180464E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.23414336235146502</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.45862102348555489</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.72911472924096876</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0934329172409996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.6652439932315117</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.81981573426815</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.0554637664341966</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-16.871104688543532</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E897-4573-B007-01FE72DC64CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1063627935"/>
+        <c:axId val="713611279"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1063627935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="713611279"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="713611279"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1063627935"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5250,7 +7201,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Диаграмма 5"/>
+        <xdr:cNvPr id="6" name="Диаграмма 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5285,7 +7242,95 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvPr id="5" name="Диаграмма 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75F8C379-3AE3-4770-890C-964CDA958B36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E23FF956-EDCC-4853-82D3-808AD62FC572}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5346,7 +7391,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5379,9 +7424,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5414,6 +7476,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -5589,18 +7668,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -6006,16 +8085,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6044,7 +8123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-7.7</v>
       </c>
@@ -6053,7 +8132,7 @@
         <v>2.8900000000000006</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-7.6000000000000005</v>
       </c>
@@ -6062,7 +8141,7 @@
         <v>2.5600000000000018</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-7.5</v>
       </c>
@@ -6075,7 +8154,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-7.4</v>
       </c>
@@ -6088,7 +8167,7 @@
         <v>3.359999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-7.3</v>
       </c>
@@ -6101,7 +8180,7 @@
         <v>3.6400000000000006</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-7.2</v>
       </c>
@@ -6114,7 +8193,7 @@
         <v>3.84</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-7.1</v>
       </c>
@@ -6127,7 +8206,7 @@
         <v>3.9600000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-7</v>
       </c>
@@ -6140,7 +8219,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-6.9</v>
       </c>
@@ -6153,7 +8232,7 @@
         <v>3.9600000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-6.8</v>
       </c>
@@ -6166,7 +8245,7 @@
         <v>3.84</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-6.7</v>
       </c>
@@ -6179,7 +8258,7 @@
         <v>3.6400000000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-6.6</v>
       </c>
@@ -6192,7 +8271,7 @@
         <v>3.359999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-6.5</v>
       </c>
@@ -6205,7 +8284,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-6.4</v>
       </c>
@@ -6214,7 +8293,7 @@
         <v>0.16000000000000028</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-6.3</v>
       </c>
@@ -6223,7 +8302,7 @@
         <v>8.99999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-6.2</v>
       </c>
@@ -6232,7 +8311,7 @@
         <v>4.000000000000007E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-6.1</v>
       </c>
@@ -6241,7 +8320,7 @@
         <v>9.9999999999999291E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-6</v>
       </c>
@@ -6250,7 +8329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-5.9</v>
       </c>
@@ -6259,7 +8338,7 @@
         <v>9.9999999999999291E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-5.8</v>
       </c>
@@ -6268,7 +8347,7 @@
         <v>4.000000000000007E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-5.7</v>
       </c>
@@ -6277,7 +8356,7 @@
         <v>8.99999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-5.6</v>
       </c>
@@ -6286,7 +8365,7 @@
         <v>0.16000000000000028</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-5.5</v>
       </c>
@@ -6299,7 +8378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-5.4</v>
       </c>
@@ -6312,7 +8391,7 @@
         <v>3.359999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-5.3</v>
       </c>
@@ -6325,7 +8404,7 @@
         <v>3.6400000000000006</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-5.2</v>
       </c>
@@ -6338,7 +8417,7 @@
         <v>3.84</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-5.0999999999999996</v>
       </c>
@@ -6355,7 +8434,7 @@
         <v>3.9600000000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-5</v>
       </c>
@@ -6372,7 +8451,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-4.9000000000000004</v>
       </c>
@@ -6389,7 +8468,7 @@
         <v>3.9600000000000004</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>-4.8</v>
       </c>
@@ -6406,7 +8485,7 @@
         <v>3.84</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>-4.7</v>
       </c>
@@ -6423,7 +8502,7 @@
         <v>3.6400000000000006</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>-4.5999999999999996</v>
       </c>
@@ -6444,7 +8523,7 @@
         <v>3.359999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>-4.5</v>
       </c>
@@ -6465,7 +8544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-4.4000000000000004</v>
       </c>
@@ -6482,7 +8561,7 @@
         <v>2.5599999999999987</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>-4.3</v>
       </c>
@@ -6499,7 +8578,7 @@
         <v>2.8900000000000006</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>-4.2</v>
       </c>
@@ -6512,7 +8591,7 @@
         <v>-6.76</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>-4.0999999999999996</v>
       </c>
@@ -6525,7 +8604,7 @@
         <v>-6.94</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>-4</v>
       </c>
@@ -6538,7 +8617,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>-3.9</v>
       </c>
@@ -6551,7 +8630,7 @@
         <v>-6.9399999999999995</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>-3.8</v>
       </c>
@@ -6564,7 +8643,7 @@
         <v>-6.76</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>-3.7</v>
       </c>
@@ -6577,7 +8656,7 @@
         <v>-6.4600000000000009</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>-3.5999999999999996</v>
       </c>
@@ -6590,7 +8669,7 @@
         <v>-6.0399999999999983</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>-3.5</v>
       </c>
@@ -6603,7 +8682,7 @@
         <v>-5.5</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>-3.4000000000000004</v>
       </c>
@@ -6616,7 +8695,7 @@
         <v>-4.8400000000000025</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>-3.3</v>
       </c>
@@ -6629,7 +8708,7 @@
         <v>-4.0599999999999987</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>-3.2</v>
       </c>
@@ -6642,7 +8721,7 @@
         <v>-3.1600000000000019</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>-3.0999999999999996</v>
       </c>
@@ -6655,7 +8734,7 @@
         <v>-2.1399999999999961</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>-3</v>
       </c>
@@ -6672,7 +8751,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>-2.8999999999999995</v>
       </c>
@@ -6685,7 +8764,7 @@
         <v>-0.8033333333333319</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>-2.8</v>
       </c>
@@ -6698,7 +8777,7 @@
         <v>-0.61333333333333284</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>-2.7</v>
       </c>
@@ -6711,7 +8790,7 @@
         <v>-0.43000000000000016</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>-2.5999999999999996</v>
       </c>
@@ -6724,7 +8803,7 @@
         <v>-0.25333333333333252</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>-2.5</v>
       </c>
@@ -6737,7 +8816,7 @@
         <v>-8.3333333333333037E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>-2.3999999999999995</v>
       </c>
@@ -6750,7 +8829,7 @@
         <v>8.0000000000000959E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>-2.2999999999999998</v>
       </c>
@@ -6763,7 +8842,7 @@
         <v>0.23666666666666702</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>-2.2000000000000002</v>
       </c>
@@ -6776,7 +8855,7 @@
         <v>0.38666666666666649</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>-2.0999999999999996</v>
       </c>
@@ -6789,7 +8868,7 @@
         <v>0.53000000000000069</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>-2</v>
       </c>
@@ -6802,7 +8881,7 @@
         <v>0.66666666666666674</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>-1.8999999999999995</v>
       </c>
@@ -6815,7 +8894,7 @@
         <v>0.7966666666666673</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>-1.7999999999999998</v>
       </c>
@@ -6828,7 +8907,7 @@
         <v>0.92000000000000037</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>-1.7000000000000002</v>
       </c>
@@ -6841,7 +8920,7 @@
         <v>1.0366666666666666</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>-1.5999999999999996</v>
       </c>
@@ -6854,7 +8933,7 @@
         <v>1.1466666666666672</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>-1.5</v>
       </c>
@@ -6867,7 +8946,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>-1.3999999999999995</v>
       </c>
@@ -6880,7 +8959,7 @@
         <v>1.3466666666666671</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>-1.2999999999999998</v>
       </c>
@@ -6893,7 +8972,7 @@
         <v>1.436666666666667</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>-1.2000000000000002</v>
       </c>
@@ -6906,7 +8985,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>-1.0999999999999996</v>
       </c>
@@ -6919,7 +8998,7 @@
         <v>1.5966666666666669</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>-1</v>
       </c>
@@ -6932,7 +9011,7 @@
         <v>1.6666666666666667</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>-0.89999999999999947</v>
       </c>
@@ -6945,7 +9024,7 @@
         <v>1.7300000000000004</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>-0.79999999999999982</v>
       </c>
@@ -6958,7 +9037,7 @@
         <v>1.7866666666666668</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>-0.70000000000000018</v>
       </c>
@@ -6971,7 +9050,7 @@
         <v>1.8366666666666667</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>-0.59999999999999964</v>
       </c>
@@ -6984,7 +9063,7 @@
         <v>1.8800000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>-0.5</v>
       </c>
@@ -6997,7 +9076,7 @@
         <v>1.9166666666666667</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>-0.39999999999999947</v>
       </c>
@@ -7010,7 +9089,7 @@
         <v>1.9466666666666668</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>-0.29999999999999982</v>
       </c>
@@ -7023,7 +9102,7 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>-0.20000000000000018</v>
       </c>
@@ -7036,7 +9115,7 @@
         <v>1.9866666666666666</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>-9.9999999999999645E-2</v>
       </c>
@@ -7049,7 +9128,7 @@
         <v>1.9966666666666666</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>0</v>
       </c>
@@ -7062,7 +9141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>0.10000000000000053</v>
       </c>
@@ -7075,7 +9154,7 @@
         <v>1.9966666666666666</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>0.20000000000000018</v>
       </c>
@@ -7088,7 +9167,7 @@
         <v>1.9866666666666666</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>0.29999999999999982</v>
       </c>
@@ -7101,7 +9180,7 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>0.39999999999999947</v>
       </c>
@@ -7114,7 +9193,7 @@
         <v>1.9466666666666668</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>0.50000000000000089</v>
       </c>
@@ -7127,7 +9206,7 @@
         <v>1.9166666666666663</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>0.60000000000000053</v>
       </c>
@@ -7140,7 +9219,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>0.70000000000000018</v>
       </c>
@@ -7153,7 +9232,7 @@
         <v>1.8366666666666667</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>0.79999999999999982</v>
       </c>
@@ -7166,7 +9245,7 @@
         <v>1.7866666666666668</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>0.89999999999999947</v>
       </c>
@@ -7179,7 +9258,7 @@
         <v>1.7300000000000004</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1.0000000000000009</v>
       </c>
@@ -7192,7 +9271,7 @@
         <v>1.6666666666666661</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1.1000000000000005</v>
       </c>
@@ -7205,7 +9284,7 @@
         <v>1.5966666666666662</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1.2000000000000002</v>
       </c>
@@ -7218,7 +9297,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1.2999999999999998</v>
       </c>
@@ -7231,7 +9310,7 @@
         <v>1.436666666666667</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1.3999999999999995</v>
       </c>
@@ -7244,7 +9323,7 @@
         <v>1.3466666666666671</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1.5000000000000009</v>
       </c>
@@ -7257,7 +9336,7 @@
         <v>1.2499999999999991</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1.6000000000000005</v>
       </c>
@@ -7270,7 +9349,7 @@
         <v>1.1466666666666661</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1.7000000000000002</v>
       </c>
@@ -7283,7 +9362,7 @@
         <v>1.0366666666666666</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1.7999999999999998</v>
       </c>
@@ -7296,7 +9375,7 @@
         <v>0.92000000000000037</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1.9000000000000012</v>
       </c>
@@ -7309,7 +9388,7 @@
         <v>0.79666666666666508</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2.0000000000000009</v>
       </c>
@@ -7322,7 +9401,7 @@
         <v>0.66666666666666563</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2.1000000000000005</v>
       </c>
@@ -7335,7 +9414,7 @@
         <v>0.52999999999999936</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2.2000000000000002</v>
       </c>
@@ -7348,7 +9427,7 @@
         <v>0.38666666666666649</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2.2999999999999998</v>
       </c>
@@ -7361,7 +9440,7 @@
         <v>0.23666666666666702</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2.4000000000000012</v>
       </c>
@@ -7374,7 +9453,7 @@
         <v>7.9999999999998073E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2.5000000000000009</v>
       </c>
@@ -7387,7 +9466,7 @@
         <v>-8.3333333333334814E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2.6000000000000005</v>
       </c>
@@ -7400,7 +9479,7 @@
         <v>-0.25333333333333385</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2.7</v>
       </c>
@@ -7413,7 +9492,7 @@
         <v>-0.43000000000000016</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>2.8</v>
       </c>
@@ -7426,7 +9505,7 @@
         <v>-0.61333333333333284</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>2.9000000000000012</v>
       </c>
@@ -7439,7 +9518,7 @@
         <v>-0.80333333333333545</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>3.0000000000000009</v>
       </c>
@@ -7456,7 +9535,7 @@
         <v>-1.0000000000000107</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>3.1000000000000005</v>
       </c>
@@ -7469,7 +9548,7 @@
         <v>-2.1400000000000059</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>3.2</v>
       </c>
@@ -7482,7 +9561,7 @@
         <v>-3.1600000000000019</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>3.3</v>
       </c>
@@ -7495,7 +9574,7 @@
         <v>-4.0599999999999987</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>3.4000000000000012</v>
       </c>
@@ -7508,7 +9587,7 @@
         <v>-4.8400000000000087</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>3.5000000000000009</v>
       </c>
@@ -7521,7 +9600,7 @@
         <v>-5.5000000000000053</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>3.6000000000000005</v>
       </c>
@@ -7534,7 +9613,7 @@
         <v>-6.0400000000000027</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>3.7</v>
       </c>
@@ -7547,7 +9626,7 @@
         <v>-6.4600000000000009</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>3.8</v>
       </c>
@@ -7560,7 +9639,7 @@
         <v>-6.76</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>3.9000000000000012</v>
       </c>
@@ -7573,7 +9652,7 @@
         <v>-6.9400000000000013</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>4.0000000000000009</v>
       </c>
@@ -7586,7 +9665,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>4.1000000000000005</v>
       </c>
@@ -7599,7 +9678,7 @@
         <v>-6.9399999999999995</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>4.2</v>
       </c>
@@ -7612,7 +9691,7 @@
         <v>-6.76</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>4.3</v>
       </c>
@@ -7625,7 +9704,7 @@
         <v>-6.4600000000000009</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>4.4000000000000012</v>
       </c>
@@ -7638,7 +9717,7 @@
         <v>-6.0399999999999938</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>4.5000000000000009</v>
       </c>
@@ -7655,7 +9734,7 @@
         <v>3.0000000000000213</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>4.6000000000000005</v>
       </c>
@@ -7672,7 +9751,7 @@
         <v>5.1600000000000099</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>4.7</v>
       </c>
@@ -7689,7 +9768,7 @@
         <v>6.8400000000000025</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>4.8</v>
       </c>
@@ -7706,7 +9785,7 @@
         <v>8.0399999999999991</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>4.9000000000000012</v>
       </c>
@@ -7723,7 +9802,7 @@
         <v>8.7600000000000051</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>5.0000000000000009</v>
       </c>
@@ -7740,7 +9819,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>5.1000000000000005</v>
       </c>
@@ -7753,7 +9832,7 @@
         <v>8.759999999999998</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>5.2</v>
       </c>
@@ -7766,7 +9845,7 @@
         <v>8.0399999999999991</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>5.3</v>
       </c>
@@ -7779,7 +9858,7 @@
         <v>6.8400000000000025</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>5.4000000000000012</v>
       </c>
@@ -7788,13 +9867,355 @@
         <v>5.1599999999999762</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>5.5000000000000009</v>
       </c>
       <c r="G134">
         <f t="shared" si="8"/>
         <v>2.9999999999999787</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE3279C-4CAA-4681-9FC0-54E1C7C5E1FF}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>-1</v>
+      </c>
+      <c r="B3">
+        <f>POWER(A3,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>A3+$B$1</f>
+        <v>-0.8</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B13" si="0">POWER(A4,2)</f>
+        <v>0.64000000000000012</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" ref="A5:A13" si="1">A4+$B$1</f>
+        <v>-0.60000000000000009</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>0.3600000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>-0.40000000000000008</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>0.16000000000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>-0.20000000000000007</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000029E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>0.16000000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="1"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>0.3600000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>0.64000000000000012</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83EEDF02-97C6-46B5-A32F-F363BBDE7F64}">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>-1.57</v>
+      </c>
+      <c r="B3">
+        <f>TAN(A3)</f>
+        <v>-1255.7655915007897</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>A3+$B$1</f>
+        <v>-1.37</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B19" si="0">TAN(A4)</f>
+        <v>-4.9130580704624744</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" ref="A5:A18" si="1">A4+$B$1</f>
+        <v>-1.1700000000000002</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>-2.3599810913765493</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>-0.9700000000000002</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>-1.4592011276663543</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>-0.77000000000000024</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>-0.96966832796148994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>-0.57000000000000028</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>-0.6409685517111563</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>-0.37000000000000027</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>-0.38786316165584939</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="1"/>
+        <v>-0.17000000000000026</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>-0.17165682217014297</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="1"/>
+        <v>2.9999999999999749E-2</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>3.0009003241180464E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="1"/>
+        <v>0.22999999999999976</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>0.23414336235146502</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="1"/>
+        <v>0.42999999999999977</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>0.45862102348555489</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="1"/>
+        <v>0.62999999999999978</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>0.72911472924096876</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="1"/>
+        <v>0.82999999999999985</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>1.0934329172409996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="1"/>
+        <v>1.0299999999999998</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>1.6652439932315117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="1"/>
+        <v>1.2299999999999998</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>2.81981573426815</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="1"/>
+        <v>1.4299999999999997</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>7.0554637664341966</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f>A18+$B$1</f>
+        <v>1.6299999999999997</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>-16.871104688543532</v>
       </c>
     </row>
   </sheetData>

--- a/Книга1 (3) (1).xlsx
+++ b/Книга1 (3) (1).xlsx
@@ -1,37 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Project-1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B92E4C4-91D0-4026-91A5-DF9C187E059F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-60" windowWidth="20730" windowHeight="11100" firstSheet="5" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Зонтик" sheetId="1" r:id="rId1"/>
     <sheet name="Кошка" sheetId="2" r:id="rId2"/>
     <sheet name="Парабола" sheetId="3" r:id="rId3"/>
     <sheet name="Тангенс" sheetId="4" r:id="rId4"/>
+    <sheet name="январь" sheetId="7" r:id="rId5"/>
+    <sheet name="февраль" sheetId="8" r:id="rId6"/>
+    <sheet name="март" sheetId="9" r:id="rId7"/>
+    <sheet name="апрель" sheetId="14" r:id="rId8"/>
+    <sheet name="май" sheetId="15" r:id="rId9"/>
+    <sheet name="июнь" sheetId="16" r:id="rId10"/>
+    <sheet name="июль" sheetId="17" r:id="rId11"/>
+    <sheet name="август" sheetId="18" r:id="rId12"/>
+    <sheet name="сентябрь" sheetId="19" r:id="rId13"/>
+    <sheet name="октябрь" sheetId="20" r:id="rId14"/>
+    <sheet name="ноябрь" sheetId="21" r:id="rId15"/>
+    <sheet name="декабрь" sheetId="22" r:id="rId16"/>
+    <sheet name="Лист1" sheetId="5" r:id="rId17"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="75">
   <si>
     <t>x</t>
   </si>
@@ -65,12 +64,207 @@
   <si>
     <t>f(x)</t>
   </si>
+  <si>
+    <t>Это первая строка Это вторая строка</t>
+  </si>
+  <si>
+    <t>1 байт = 8 бит                            1 килобайт = 1024 байт        1 километр = 1000 м</t>
+  </si>
+  <si>
+    <t>март</t>
+  </si>
+  <si>
+    <t>февраль</t>
+  </si>
+  <si>
+    <t>январь</t>
+  </si>
+  <si>
+    <t>Месяц</t>
+  </si>
+  <si>
+    <t>Химия</t>
+  </si>
+  <si>
+    <t>ОИВТ</t>
+  </si>
+  <si>
+    <t>Ин. яз.</t>
+  </si>
+  <si>
+    <t>Физика</t>
+  </si>
+  <si>
+    <t>История</t>
+  </si>
+  <si>
+    <t>Алгебра</t>
+  </si>
+  <si>
+    <t>Среда</t>
+  </si>
+  <si>
+    <t>9В</t>
+  </si>
+  <si>
+    <t>9Б</t>
+  </si>
+  <si>
+    <t>9А</t>
+  </si>
+  <si>
+    <t>Класс</t>
+  </si>
+  <si>
+    <t>Понедельник</t>
+  </si>
+  <si>
+    <t>Flash-память</t>
+  </si>
+  <si>
+    <t>DVD-диск</t>
+  </si>
+  <si>
+    <t>CD-диск</t>
+  </si>
+  <si>
+    <t>Жесткий магнитный диск</t>
+  </si>
+  <si>
+    <t>Информационная емкость в Мб</t>
+  </si>
+  <si>
+    <t>Наименование усторйства</t>
+  </si>
+  <si>
+    <t>СУММА</t>
+  </si>
+  <si>
+    <t>Доценко А.Н.</t>
+  </si>
+  <si>
+    <t>Тимофеев Т.Н.</t>
+  </si>
+  <si>
+    <t>Григорьев Р.О.</t>
+  </si>
+  <si>
+    <t>Синицын М.Н.</t>
+  </si>
+  <si>
+    <t>Попов Р.Г.</t>
+  </si>
+  <si>
+    <t>Юрьевич Н.Л.</t>
+  </si>
+  <si>
+    <t>Васечкин Д.Т.</t>
+  </si>
+  <si>
+    <t>Николаев С.Ю.</t>
+  </si>
+  <si>
+    <t>Иванов К.Т.</t>
+  </si>
+  <si>
+    <t>Сидоров В.И.</t>
+  </si>
+  <si>
+    <t>Петров А.Д.</t>
+  </si>
+  <si>
+    <t>Зарплата</t>
+  </si>
+  <si>
+    <t>Дней</t>
+  </si>
+  <si>
+    <t>Часов в день</t>
+  </si>
+  <si>
+    <t>Оплата за час</t>
+  </si>
+  <si>
+    <t>Фамилия</t>
+  </si>
+  <si>
+    <t>ЗАРПЛАТА</t>
+  </si>
+  <si>
+    <t>Сев. Ледовитый</t>
+  </si>
+  <si>
+    <t>Индийский</t>
+  </si>
+  <si>
+    <t>Атлантический</t>
+  </si>
+  <si>
+    <t>Тихий</t>
+  </si>
+  <si>
+    <t>Наибольшая глубина, м</t>
+  </si>
+  <si>
+    <t>Площадь, тыс. кв. м</t>
+  </si>
+  <si>
+    <t>Название</t>
+  </si>
+  <si>
+    <t>СВЕДЕНИЕ ОБ ОКЕАНАХ НА ЗЕМНОМ ШАРЕ</t>
+  </si>
+  <si>
+    <t>Объем вознаграждения</t>
+  </si>
+  <si>
+    <t>5.5%</t>
+  </si>
+  <si>
+    <t>Размер вознаграждения</t>
+  </si>
+  <si>
+    <t>Объем сделки</t>
+  </si>
+  <si>
+    <t>Расчет вознаграждения</t>
+  </si>
+  <si>
+    <t>Беляев</t>
+  </si>
+  <si>
+    <t>Сидоров</t>
+  </si>
+  <si>
+    <t>Краснов</t>
+  </si>
+  <si>
+    <t>Галкин</t>
+  </si>
+  <si>
+    <t>Петров</t>
+  </si>
+  <si>
+    <t>Иванов</t>
+  </si>
+  <si>
+    <t>Изо</t>
+  </si>
+  <si>
+    <t>Рус. язык</t>
+  </si>
+  <si>
+    <t>№          п/п</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="42" formatCode="_-* #,##0&quot;р.&quot;_-;\-* #,##0&quot;р.&quot;_-;_-* &quot;-&quot;&quot;р.&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,16 +273,125 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -96,13 +399,133 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -115,15 +538,12 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -324,7 +744,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-AB2B-4015-B973-E1DCDFEB2DC0}"/>
             </c:ext>
@@ -454,7 +874,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-AB2B-4015-B973-E1DCDFEB2DC0}"/>
             </c:ext>
@@ -584,7 +1004,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-AB2B-4015-B973-E1DCDFEB2DC0}"/>
             </c:ext>
@@ -714,7 +1134,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-AB2B-4015-B973-E1DCDFEB2DC0}"/>
             </c:ext>
@@ -832,7 +1252,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-AB2B-4015-B973-E1DCDFEB2DC0}"/>
             </c:ext>
@@ -950,7 +1370,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-AB2B-4015-B973-E1DCDFEB2DC0}"/>
             </c:ext>
@@ -964,11 +1384,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="29543424"/>
-        <c:axId val="29541888"/>
+        <c:axId val="75994752"/>
+        <c:axId val="81216064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="29543424"/>
+        <c:axId val="75994752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -978,12 +1398,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="29541888"/>
+        <c:crossAx val="81216064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="29541888"/>
+        <c:axId val="81216064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -994,13 +1414,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="29543424"/>
+        <c:crossAx val="75994752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1016,7 +1437,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1747,7 +2168,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-09BA-4E0B-BE1F-92B44A72025F}"/>
             </c:ext>
@@ -2357,7 +2778,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-09BA-4E0B-BE1F-92B44A72025F}"/>
             </c:ext>
@@ -2850,7 +3271,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-09BA-4E0B-BE1F-92B44A72025F}"/>
             </c:ext>
@@ -3349,7 +3770,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-09BA-4E0B-BE1F-92B44A72025F}"/>
             </c:ext>
@@ -3881,7 +4302,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-09BA-4E0B-BE1F-92B44A72025F}"/>
             </c:ext>
@@ -4341,7 +4762,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-09BA-4E0B-BE1F-92B44A72025F}"/>
             </c:ext>
@@ -4801,7 +5222,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-09BA-4E0B-BE1F-92B44A72025F}"/>
             </c:ext>
@@ -5261,7 +5682,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-09BA-4E0B-BE1F-92B44A72025F}"/>
             </c:ext>
@@ -5275,11 +5696,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="77323264"/>
-        <c:axId val="77321344"/>
+        <c:axId val="82956224"/>
+        <c:axId val="82956800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="77323264"/>
+        <c:axId val="82956224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5289,12 +5710,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77321344"/>
+        <c:crossAx val="82956800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="77321344"/>
+        <c:axId val="82956800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5305,13 +5726,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77323264"/>
+        <c:crossAx val="82956224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5327,7 +5749,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -5341,6 +5763,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5488,7 +5911,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-58E5-446B-85D6-C5F0684F3D24}"/>
             </c:ext>
@@ -5502,11 +5925,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1063621535"/>
-        <c:axId val="948997311"/>
+        <c:axId val="82959104"/>
+        <c:axId val="82959680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1063621535"/>
+        <c:axId val="82959104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5563,12 +5986,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948997311"/>
+        <c:crossAx val="82959680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="948997311"/>
+        <c:axId val="82959680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5625,7 +6048,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1063621535"/>
+        <c:crossAx val="82959104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5639,14 +6062,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5682,7 +6105,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -5696,6 +6119,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5879,7 +6303,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E897-4573-B007-01FE72DC64CF}"/>
             </c:ext>
@@ -5893,11 +6317,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1063627935"/>
-        <c:axId val="713611279"/>
+        <c:axId val="82977920"/>
+        <c:axId val="82978496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1063627935"/>
+        <c:axId val="82977920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5954,12 +6378,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="713611279"/>
+        <c:crossAx val="82978496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="713611279"/>
+        <c:axId val="82978496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6016,7 +6440,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1063627935"/>
+        <c:crossAx val="82977920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6030,14 +6454,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7204,7 +7628,7 @@
         <xdr:cNvPr id="6" name="Диаграмма 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7245,7 +7669,7 @@
         <xdr:cNvPr id="5" name="Диаграмма 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7286,7 +7710,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75F8C379-3AE3-4770-890C-964CDA958B36}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{75F8C379-3AE3-4770-890C-964CDA958B36}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7327,7 +7751,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E23FF956-EDCC-4853-82D3-808AD62FC572}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E23FF956-EDCC-4853-82D3-808AD62FC572}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7391,7 +7815,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7424,26 +7848,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7476,23 +7883,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -7668,7 +8058,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -8084,8 +8474,898 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C3" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="38"/>
+      <c r="C5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="38"/>
+      <c r="C6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="38"/>
+      <c r="C7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="38"/>
+      <c r="C8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="38"/>
+      <c r="C9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="38"/>
+      <c r="C10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="38"/>
+      <c r="C11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="B4:B11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="8"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="40"/>
+      <c r="C4" s="39"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="40"/>
+      <c r="C5" s="39"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="40"/>
+      <c r="C6" s="39"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="40"/>
+      <c r="C7" s="39"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="40"/>
+      <c r="C8" s="39"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="40"/>
+      <c r="C9" s="39"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="40"/>
+      <c r="C10" s="39"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="40"/>
+      <c r="C11" s="39"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="40"/>
+      <c r="C12" s="39"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="40"/>
+      <c r="C13" s="39"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="40"/>
+      <c r="C14" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:B14"/>
+    <mergeCell ref="C3:C14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="30" style="3" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="17"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="18">
+        <v>250</v>
+      </c>
+      <c r="C2" s="19">
+        <f>PRODUCT(B2,1024)</f>
+        <v>256000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="18">
+        <v>0.7</v>
+      </c>
+      <c r="C3" s="19">
+        <f>PRODUCT(B3,1024)</f>
+        <v>716.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="18">
+        <v>4.7</v>
+      </c>
+      <c r="C4" s="19">
+        <f>PRODUCT(B4,1024)</f>
+        <v>4812.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="18">
+        <v>16</v>
+      </c>
+      <c r="C5" s="19">
+        <f>PRODUCT(B5,1024)</f>
+        <v>16384</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="9"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="28">
+        <v>24</v>
+      </c>
+      <c r="C3" s="28">
+        <v>8</v>
+      </c>
+      <c r="D3" s="28">
+        <v>22</v>
+      </c>
+      <c r="E3" s="27">
+        <f>PRODUCT(B3:D3)</f>
+        <v>4224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="28">
+        <v>16</v>
+      </c>
+      <c r="C4" s="28">
+        <v>7</v>
+      </c>
+      <c r="D4" s="28">
+        <v>18</v>
+      </c>
+      <c r="E4" s="27">
+        <f>PRODUCT(B4:D4)</f>
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="28">
+        <v>36</v>
+      </c>
+      <c r="C5" s="28">
+        <v>8</v>
+      </c>
+      <c r="D5" s="28">
+        <v>20</v>
+      </c>
+      <c r="E5" s="27">
+        <f>PRODUCT(B5:D5)</f>
+        <v>5760</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="28">
+        <v>20</v>
+      </c>
+      <c r="C6" s="28">
+        <v>6</v>
+      </c>
+      <c r="D6" s="28">
+        <v>19</v>
+      </c>
+      <c r="E6" s="27">
+        <f>PRODUCT(B6:D6)</f>
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="28">
+        <v>19</v>
+      </c>
+      <c r="C7" s="28">
+        <v>7</v>
+      </c>
+      <c r="D7" s="28">
+        <v>21</v>
+      </c>
+      <c r="E7" s="27">
+        <f>PRODUCT(B7:D7)</f>
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="28">
+        <v>34</v>
+      </c>
+      <c r="C8" s="28">
+        <v>6</v>
+      </c>
+      <c r="D8" s="28">
+        <v>22</v>
+      </c>
+      <c r="E8" s="27">
+        <f>PRODUCT(B8:D8)</f>
+        <v>4488</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="28">
+        <v>30</v>
+      </c>
+      <c r="C9" s="28">
+        <v>7</v>
+      </c>
+      <c r="D9" s="28">
+        <v>20</v>
+      </c>
+      <c r="E9" s="27">
+        <f>PRODUCT(B9:D9)</f>
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="28">
+        <v>25</v>
+      </c>
+      <c r="C10" s="28">
+        <v>8</v>
+      </c>
+      <c r="D10" s="28">
+        <v>19</v>
+      </c>
+      <c r="E10" s="27">
+        <f>PRODUCT(B10:D10)</f>
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="28">
+        <v>31</v>
+      </c>
+      <c r="C11" s="28">
+        <v>8</v>
+      </c>
+      <c r="D11" s="28">
+        <v>22</v>
+      </c>
+      <c r="E11" s="27">
+        <f>PRODUCT(B11:D11)</f>
+        <v>5456</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="28">
+        <v>33</v>
+      </c>
+      <c r="C12" s="28">
+        <v>7</v>
+      </c>
+      <c r="D12" s="28">
+        <v>21</v>
+      </c>
+      <c r="E12" s="27">
+        <f>PRODUCT(B12:D12)</f>
+        <v>4851</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="28">
+        <v>15</v>
+      </c>
+      <c r="C13" s="28">
+        <v>6</v>
+      </c>
+      <c r="D13" s="28">
+        <v>19</v>
+      </c>
+      <c r="E13" s="27">
+        <f>PRODUCT(B13:D13)</f>
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="29">
+        <f>SUM(E3:E13)</f>
+        <v>41578</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="23" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="23">
+        <v>178684</v>
+      </c>
+      <c r="C3" s="23">
+        <v>11022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="23">
+        <v>91655</v>
+      </c>
+      <c r="C4" s="23">
+        <v>8742</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="23">
+        <v>76174</v>
+      </c>
+      <c r="C5" s="23">
+        <v>7729</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="23">
+        <v>14756</v>
+      </c>
+      <c r="C6" s="23">
+        <v>5527</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="37"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="21">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="21">
+        <v>275</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="12.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12" style="3" customWidth="1"/>
+    <col min="5" max="6" width="12.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="32">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="34">
+        <v>5</v>
+      </c>
+      <c r="D2" s="35">
+        <v>4</v>
+      </c>
+      <c r="E2" s="34">
+        <v>5</v>
+      </c>
+      <c r="F2" s="34">
+        <v>5</v>
+      </c>
+      <c r="G2" s="35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="32">
+        <v>2</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="35">
+        <v>4</v>
+      </c>
+      <c r="D3" s="34">
+        <v>5</v>
+      </c>
+      <c r="E3" s="34">
+        <v>5</v>
+      </c>
+      <c r="F3" s="36">
+        <v>3</v>
+      </c>
+      <c r="G3" s="34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="32">
+        <v>3</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="34">
+        <v>5</v>
+      </c>
+      <c r="D4" s="34">
+        <v>5</v>
+      </c>
+      <c r="E4" s="34">
+        <v>5</v>
+      </c>
+      <c r="F4" s="34">
+        <v>5</v>
+      </c>
+      <c r="G4" s="35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="32">
+        <v>4</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="35">
+        <v>4</v>
+      </c>
+      <c r="D5" s="34">
+        <v>5</v>
+      </c>
+      <c r="E5" s="35">
+        <v>4</v>
+      </c>
+      <c r="F5" s="35">
+        <v>4</v>
+      </c>
+      <c r="G5" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="32">
+        <v>5</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="36">
+        <v>3</v>
+      </c>
+      <c r="D6" s="36">
+        <v>3</v>
+      </c>
+      <c r="E6" s="34">
+        <v>5</v>
+      </c>
+      <c r="F6" s="34">
+        <v>5</v>
+      </c>
+      <c r="G6" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="32">
+        <v>6</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="35">
+        <v>4</v>
+      </c>
+      <c r="D7" s="35">
+        <v>4</v>
+      </c>
+      <c r="E7" s="34">
+        <v>5</v>
+      </c>
+      <c r="F7" s="36">
+        <v>3</v>
+      </c>
+      <c r="G7" s="34">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9883,7 +11163,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE3279C-4CAA-4681-9FC0-54E1C7C5E1FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10024,11 +11304,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83EEDF02-97C6-46B5-A32F-F363BBDE7F64}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10222,4 +11502,249 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="14"/>
+    <col min="2" max="2" width="9.140625" style="3"/>
+    <col min="3" max="3" width="9.140625" style="14"/>
+    <col min="4" max="4" width="9.140625" style="3"/>
+    <col min="5" max="5" width="9.140625" style="14"/>
+    <col min="6" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="E1" s="14"/>
+    </row>
+    <row r="3" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="E3" s="14"/>
+    </row>
+    <row r="5" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="E5" s="14"/>
+    </row>
+    <row r="7" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="E7" s="14"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>20</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="13">
+        <v>22</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="13">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="13">
+        <v>24</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="13">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="18.140625" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="21.7109375" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="37"/>
+      <c r="C5" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="37"/>
+      <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="37"/>
+      <c r="C7" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="37"/>
+      <c r="C8" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="37"/>
+      <c r="C9" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="37"/>
+      <c r="C10" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B4:B10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Книга1 (3) (1).xlsx
+++ b/Книга1 (3) (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Project-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41EC181-48F1-4951-8EF1-9085E46ED77C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FEFB4E-9DC2-48FB-A650-14DA9736A951}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Зонтик" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,10 @@
     <sheet name="октябрь" sheetId="15" r:id="rId14"/>
     <sheet name="ноябрь" sheetId="16" r:id="rId15"/>
     <sheet name="декабрь" sheetId="17" r:id="rId16"/>
-    <sheet name="Лист1" sheetId="5" r:id="rId17"/>
+    <sheet name="К.п.2" sheetId="18" r:id="rId17"/>
+    <sheet name="К.п.2(1)" sheetId="19" r:id="rId18"/>
+    <sheet name="К.п.2(2)" sheetId="20" r:id="rId19"/>
+    <sheet name="Лист1" sheetId="5" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="116">
   <si>
     <t>x</t>
   </si>
@@ -270,26 +273,142 @@
   <si>
     <t>№          п/п</t>
   </si>
+  <si>
+    <t>Суслов Иван</t>
+  </si>
+  <si>
+    <t>Сомов Виктор</t>
+  </si>
+  <si>
+    <t>Симонова Елена</t>
+  </si>
+  <si>
+    <t>Семенова Ирина</t>
+  </si>
+  <si>
+    <t>Петров Олег</t>
+  </si>
+  <si>
+    <t>Орлова Анна</t>
+  </si>
+  <si>
+    <t>Орехова Татьяна</t>
+  </si>
+  <si>
+    <t>Лосева Ольга</t>
+  </si>
+  <si>
+    <t>Городилов Андрей</t>
+  </si>
+  <si>
+    <t>Бобров Игорь</t>
+  </si>
+  <si>
+    <t>Средний балл</t>
+  </si>
+  <si>
+    <t>Сумма баллов</t>
+  </si>
+  <si>
+    <t>Сочинение</t>
+  </si>
+  <si>
+    <t>Математика</t>
+  </si>
+  <si>
+    <t>Фамилия    Имя</t>
+  </si>
+  <si>
+    <t>Абитуриенты</t>
+  </si>
+  <si>
+    <t>Ср. высота</t>
+  </si>
+  <si>
+    <t>Макс. Площадь</t>
+  </si>
+  <si>
+    <t>Мин. глубина</t>
+  </si>
+  <si>
+    <t>Мичиган</t>
+  </si>
+  <si>
+    <t>Аральское море</t>
+  </si>
+  <si>
+    <t>Гурон</t>
+  </si>
+  <si>
+    <t>Виктория</t>
+  </si>
+  <si>
+    <t>Таньганьика</t>
+  </si>
+  <si>
+    <t>Байкал</t>
+  </si>
+  <si>
+    <t>Высота над уровнем моря</t>
+  </si>
+  <si>
+    <t>Глубина (м)</t>
+  </si>
+  <si>
+    <t>Площадь (тыс.кв.м)</t>
+  </si>
+  <si>
+    <t>Название озер</t>
+  </si>
+  <si>
+    <t>Средний балл по группе</t>
+  </si>
+  <si>
+    <t>Сидорова Таня</t>
+  </si>
+  <si>
+    <t>Ян Миша</t>
+  </si>
+  <si>
+    <t>Ли Коля</t>
+  </si>
+  <si>
+    <t>Васильев Вася</t>
+  </si>
+  <si>
+    <t>Иванов Петя</t>
+  </si>
+  <si>
+    <t>География</t>
+  </si>
+  <si>
+    <t>Геометрия</t>
+  </si>
+  <si>
+    <t>Литература</t>
+  </si>
+  <si>
+    <t>Русский язык</t>
+  </si>
+  <si>
+    <t>Предмет      Фамилии</t>
+  </si>
+  <si>
+    <t>№№</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-* #,##0&quot;р.&quot;_-;\-* #,##0&quot;р.&quot;_-;_-* &quot;-&quot;&quot;р.&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -321,23 +440,43 @@
       <charset val="204"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -404,8 +543,31 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="gray0625"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray0625">
+        <bgColor theme="6" tint="0.39997558519241921"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkUp"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB8E3EA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -441,11 +603,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -470,24 +662,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -495,7 +672,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -505,10 +682,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -519,24 +693,88 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8528,14 +8766,14 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="36" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -8549,7 +8787,7 @@
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="13"/>
+      <c r="B5" s="36"/>
       <c r="C5" t="s">
         <v>22</v>
       </c>
@@ -8561,7 +8799,7 @@
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="13"/>
+      <c r="B6" s="36"/>
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -8573,7 +8811,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="13"/>
+      <c r="B7" s="36"/>
       <c r="C7" t="s">
         <v>20</v>
       </c>
@@ -8585,7 +8823,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="13"/>
+      <c r="B8" s="36"/>
       <c r="C8" t="s">
         <v>19</v>
       </c>
@@ -8597,7 +8835,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="13"/>
+      <c r="B9" s="36"/>
       <c r="C9" t="s">
         <v>18</v>
       </c>
@@ -8609,7 +8847,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="13"/>
+      <c r="B10" s="36"/>
       <c r="C10" t="s">
         <v>18</v>
       </c>
@@ -8621,7 +8859,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="13"/>
+      <c r="B11" s="36"/>
       <c r="C11" t="s">
         <v>17</v>
       </c>
@@ -8652,59 +8890,59 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="16"/>
+      <c r="A1" s="11"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="38" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="15"/>
-      <c r="C4" s="14"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="38"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="15"/>
-      <c r="C5" s="14"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="38"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="15"/>
-      <c r="C6" s="14"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="38"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="15"/>
-      <c r="C7" s="14"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="38"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="15"/>
-      <c r="C8" s="14"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="38"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="15"/>
-      <c r="C9" s="14"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="38"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="15"/>
-      <c r="C10" s="14"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="38"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="15"/>
-      <c r="C11" s="14"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="38"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="15"/>
-      <c r="C12" s="14"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="38"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="15"/>
-      <c r="C13" s="14"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="38"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="15"/>
-      <c r="C14" s="14"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8731,25 +8969,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="20"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="14">
         <v>250</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="13">
         <f>PRODUCT(B2,1024)</f>
         <v>256000</v>
       </c>
@@ -8758,10 +8996,10 @@
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="14">
         <v>0.7</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="13">
         <f>PRODUCT(B3,1024)</f>
         <v>716.8</v>
       </c>
@@ -8770,10 +9008,10 @@
       <c r="A4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="14">
         <v>4.7</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="13">
         <f>PRODUCT(B4,1024)</f>
         <v>4812.8</v>
       </c>
@@ -8782,19 +9020,19 @@
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="14">
         <v>16</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="13">
         <f>PRODUCT(B5,1024)</f>
         <v>16384</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="17"/>
+      <c r="B8" s="12"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
+      <c r="A12" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8819,237 +9057,237 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="22" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="21">
         <v>24</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="21">
         <v>8</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="21">
         <v>22</v>
       </c>
-      <c r="E3" s="25">
-        <f>PRODUCT(B3:D3)</f>
+      <c r="E3" s="20">
+        <f t="shared" ref="E3:E13" si="0">PRODUCT(B3:D3)</f>
         <v>4224</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="21">
         <v>16</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="21">
         <v>7</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="21">
         <v>18</v>
       </c>
-      <c r="E4" s="25">
-        <f>PRODUCT(B4:D4)</f>
+      <c r="E4" s="20">
+        <f t="shared" si="0"/>
         <v>2016</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="21">
         <v>36</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="21">
         <v>8</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="21">
         <v>20</v>
       </c>
-      <c r="E5" s="25">
-        <f>PRODUCT(B5:D5)</f>
+      <c r="E5" s="20">
+        <f t="shared" si="0"/>
         <v>5760</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="21">
         <v>20</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="21">
         <v>6</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="21">
         <v>19</v>
       </c>
-      <c r="E6" s="25">
-        <f>PRODUCT(B6:D6)</f>
+      <c r="E6" s="20">
+        <f t="shared" si="0"/>
         <v>2280</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="21">
         <v>19</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="21">
         <v>7</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="21">
         <v>21</v>
       </c>
-      <c r="E7" s="25">
-        <f>PRODUCT(B7:D7)</f>
+      <c r="E7" s="20">
+        <f t="shared" si="0"/>
         <v>2793</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="21">
         <v>34</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="21">
         <v>6</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="21">
         <v>22</v>
       </c>
-      <c r="E8" s="25">
-        <f>PRODUCT(B8:D8)</f>
+      <c r="E8" s="20">
+        <f t="shared" si="0"/>
         <v>4488</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="21">
         <v>30</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="21">
         <v>7</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="21">
         <v>20</v>
       </c>
-      <c r="E9" s="25">
-        <f>PRODUCT(B9:D9)</f>
+      <c r="E9" s="20">
+        <f t="shared" si="0"/>
         <v>4200</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="21">
         <v>25</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="21">
         <v>8</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="21">
         <v>19</v>
       </c>
-      <c r="E10" s="25">
-        <f>PRODUCT(B10:D10)</f>
+      <c r="E10" s="20">
+        <f t="shared" si="0"/>
         <v>3800</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="21">
         <v>31</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="21">
         <v>8</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="21">
         <v>22</v>
       </c>
-      <c r="E11" s="25">
-        <f>PRODUCT(B11:D11)</f>
+      <c r="E11" s="20">
+        <f t="shared" si="0"/>
         <v>5456</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="21">
         <v>33</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="21">
         <v>7</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="21">
         <v>21</v>
       </c>
-      <c r="E12" s="25">
-        <f>PRODUCT(B12:D12)</f>
+      <c r="E12" s="20">
+        <f t="shared" si="0"/>
         <v>4851</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B13" s="21">
         <v>15</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="21">
         <v>6</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="21">
         <v>19</v>
       </c>
-      <c r="E13" s="25">
-        <f>PRODUCT(B13:D13)</f>
+      <c r="E13" s="20">
+        <f t="shared" si="0"/>
         <v>1710</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="23" t="s">
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="17">
         <f>SUM(E3:E13)</f>
         <v>41578</v>
       </c>
@@ -9078,11 +9316,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -9099,10 +9337,10 @@
       <c r="A3" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="23">
         <v>178684</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="23">
         <v>11022</v>
       </c>
     </row>
@@ -9110,10 +9348,10 @@
       <c r="A4" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="23">
         <v>91655</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="23">
         <v>8742</v>
       </c>
     </row>
@@ -9121,10 +9359,10 @@
       <c r="A5" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="23">
         <v>76174</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="23">
         <v>7729</v>
       </c>
     </row>
@@ -9132,10 +9370,10 @@
       <c r="A6" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B6" s="23">
         <v>14756</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="23">
         <v>5527</v>
       </c>
     </row>
@@ -9162,32 +9400,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="35"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="30">
+      <c r="B2" s="24">
         <v>5000</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="26" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="24">
         <v>275</v>
       </c>
     </row>
@@ -9205,7 +9443,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9218,164 +9456,588 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="28" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="37">
+      <c r="A2" s="29">
         <v>1</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="33">
+      <c r="C2" s="31">
         <v>5</v>
       </c>
-      <c r="D2" s="35">
+      <c r="D2" s="32">
         <v>4</v>
       </c>
-      <c r="E2" s="33">
+      <c r="E2" s="31">
         <v>5</v>
       </c>
-      <c r="F2" s="33">
+      <c r="F2" s="31">
         <v>5</v>
       </c>
-      <c r="G2" s="35">
+      <c r="G2" s="32">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="37">
+      <c r="A3" s="29">
         <v>2</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="35">
+      <c r="C3" s="32">
         <v>4</v>
       </c>
-      <c r="D3" s="33">
+      <c r="D3" s="31">
         <v>5</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="31">
         <v>5</v>
       </c>
-      <c r="F3" s="34">
+      <c r="F3" s="33">
         <v>3</v>
       </c>
-      <c r="G3" s="33">
+      <c r="G3" s="31">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="37">
+      <c r="A4" s="29">
         <v>3</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="31">
         <v>5</v>
       </c>
-      <c r="D4" s="33">
+      <c r="D4" s="31">
         <v>5</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="31">
         <v>5</v>
       </c>
-      <c r="F4" s="33">
+      <c r="F4" s="31">
         <v>5</v>
       </c>
-      <c r="G4" s="35">
+      <c r="G4" s="32">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="37">
+      <c r="A5" s="29">
         <v>4</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="32">
         <v>4</v>
       </c>
-      <c r="D5" s="33">
+      <c r="D5" s="31">
         <v>5</v>
       </c>
-      <c r="E5" s="35">
+      <c r="E5" s="32">
         <v>4</v>
       </c>
-      <c r="F5" s="35">
+      <c r="F5" s="32">
         <v>4</v>
       </c>
-      <c r="G5" s="34">
+      <c r="G5" s="33">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="37">
+      <c r="A6" s="29">
         <v>5</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="33">
         <v>3</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="33">
         <v>3</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="31">
         <v>5</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="31">
         <v>5</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="33">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="37">
+      <c r="A7" s="29">
         <v>6</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="32">
         <v>4</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="32">
         <v>4</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="31">
         <v>5</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F7" s="33">
         <v>3</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="31">
         <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315E6957-99EB-4DAD-A813-C09BEB04174B}">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" customWidth="1"/>
+    <col min="3" max="3" width="4" customWidth="1"/>
+    <col min="4" max="4" width="4.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+    </row>
+    <row r="2" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="4">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4">
+        <v>3</v>
+      </c>
+      <c r="E3" s="4">
+        <f>SUM(B3:D3)</f>
+        <v>12</v>
+      </c>
+      <c r="F3" s="40">
+        <f>AVERAGE(B3:D3)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="4">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4">
+        <v>4</v>
+      </c>
+      <c r="E4" s="4">
+        <f>SUM(B4:D4)</f>
+        <v>13</v>
+      </c>
+      <c r="F4" s="40">
+        <f>AVERAGE(B4:D4)</f>
+        <v>4.333333333333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4">
+        <v>4</v>
+      </c>
+      <c r="E5" s="4">
+        <f>SUM(B5:D5)</f>
+        <v>13</v>
+      </c>
+      <c r="F5" s="40">
+        <f>AVERAGE(B5:D5)</f>
+        <v>4.333333333333333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="4">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4">
+        <v>5</v>
+      </c>
+      <c r="E6" s="4">
+        <f>SUM(B6:D6)</f>
+        <v>13</v>
+      </c>
+      <c r="F6" s="40">
+        <f>AVERAGE(B6:D6)</f>
+        <v>4.333333333333333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="4">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <f>SUM(B7:D7)</f>
+        <v>5</v>
+      </c>
+      <c r="F7" s="40">
+        <f>AVERAGE(B7:D7)</f>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="4">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4">
+        <v>3</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2</v>
+      </c>
+      <c r="E8" s="4">
+        <f>SUM(B8:D8)</f>
+        <v>9</v>
+      </c>
+      <c r="F8" s="40">
+        <f>AVERAGE(B8:D8)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="4">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4">
+        <v>5</v>
+      </c>
+      <c r="D9" s="4">
+        <v>5</v>
+      </c>
+      <c r="E9" s="4">
+        <f>SUM(B9:D9)</f>
+        <v>15</v>
+      </c>
+      <c r="F9" s="40">
+        <f>AVERAGE(B9:D9)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="4">
+        <v>4</v>
+      </c>
+      <c r="C10" s="4">
+        <v>3</v>
+      </c>
+      <c r="D10" s="4">
+        <v>4</v>
+      </c>
+      <c r="E10" s="4">
+        <f>SUM(B10:D10)</f>
+        <v>11</v>
+      </c>
+      <c r="F10" s="40">
+        <f>AVERAGE(B10:D10)</f>
+        <v>3.6666666666666665</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="4">
+        <v>4</v>
+      </c>
+      <c r="C11" s="4">
+        <v>4</v>
+      </c>
+      <c r="D11" s="4">
+        <v>4</v>
+      </c>
+      <c r="E11" s="4">
+        <f>SUM(B11:D11)</f>
+        <v>12</v>
+      </c>
+      <c r="F11" s="40">
+        <f>AVERAGE(B11:D11)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="4">
+        <v>3</v>
+      </c>
+      <c r="C12" s="4">
+        <v>4</v>
+      </c>
+      <c r="D12" s="4">
+        <v>4</v>
+      </c>
+      <c r="E12" s="4">
+        <f>SUM(B12:D12)</f>
+        <v>11</v>
+      </c>
+      <c r="F12" s="40">
+        <f>AVERAGE(B12:D12)</f>
+        <v>3.6666666666666665</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8FC902-718D-4D14-9498-81D14B340DD8}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="4">
+        <v>31.5</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1520</v>
+      </c>
+      <c r="D2" s="4">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="4">
+        <v>34</v>
+      </c>
+      <c r="C3" s="4">
+        <v>14701</v>
+      </c>
+      <c r="D3" s="4">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="4">
+        <v>68</v>
+      </c>
+      <c r="C4" s="4">
+        <v>80</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="4">
+        <v>59.6</v>
+      </c>
+      <c r="C5" s="4">
+        <v>288</v>
+      </c>
+      <c r="D5" s="4">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="4">
+        <v>51.1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>61</v>
+      </c>
+      <c r="D6" s="4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="4">
+        <v>58</v>
+      </c>
+      <c r="C7" s="4">
+        <v>281</v>
+      </c>
+      <c r="D7" s="46">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D8" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="4">
+        <f>MIN(C2:C7)</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D9" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="4">
+        <f>MAX(B2:B7)</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D10" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="40">
+        <f>AVERAGE(D2:D7)</f>
+        <v>461.66666666666669</v>
       </c>
     </row>
   </sheetData>
@@ -9383,15 +10045,267 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E07E315-ADB6-42DD-8081-3A1ABCF7227E}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F3A0391-05FF-426E-9BC7-1BB44CE61D4B}">
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="5" customWidth="1"/>
+    <col min="4" max="5" width="4.7109375" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" customWidth="1"/>
+    <col min="7" max="7" width="4.28515625" customWidth="1"/>
+    <col min="8" max="9" width="4.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="55">
+        <v>1</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="49">
+        <v>4</v>
+      </c>
+      <c r="D2" s="52">
+        <v>5</v>
+      </c>
+      <c r="E2" s="52">
+        <v>5</v>
+      </c>
+      <c r="F2" s="52">
+        <v>5</v>
+      </c>
+      <c r="G2" s="52">
+        <v>5</v>
+      </c>
+      <c r="H2" s="52">
+        <v>5</v>
+      </c>
+      <c r="I2" s="52">
+        <v>5</v>
+      </c>
+      <c r="J2" s="48">
+        <f>AVERAGE(C2:I2)</f>
+        <v>4.8571428571428568</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="55">
+        <v>2</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="53">
+        <v>3</v>
+      </c>
+      <c r="D3" s="53">
+        <v>3</v>
+      </c>
+      <c r="E3" s="53">
+        <v>3</v>
+      </c>
+      <c r="F3" s="53">
+        <v>3</v>
+      </c>
+      <c r="G3" s="53">
+        <v>3</v>
+      </c>
+      <c r="H3" s="53">
+        <v>3</v>
+      </c>
+      <c r="I3" s="53">
+        <v>3</v>
+      </c>
+      <c r="J3" s="56">
+        <f>AVERAGE(C3:I3)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="55">
+        <v>3</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="53">
+        <v>2</v>
+      </c>
+      <c r="D4" s="49">
+        <v>4</v>
+      </c>
+      <c r="E4" s="49">
+        <v>4</v>
+      </c>
+      <c r="F4" s="49">
+        <v>4</v>
+      </c>
+      <c r="G4" s="49">
+        <v>4</v>
+      </c>
+      <c r="H4" s="49">
+        <v>4</v>
+      </c>
+      <c r="I4" s="49">
+        <v>4</v>
+      </c>
+      <c r="J4" s="56">
+        <f>AVERAGE(C4:I4)</f>
+        <v>3.7142857142857144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="55">
+        <v>4</v>
+      </c>
+      <c r="B5" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="49">
+        <v>4</v>
+      </c>
+      <c r="D5" s="49">
+        <v>4</v>
+      </c>
+      <c r="E5" s="52">
+        <v>5</v>
+      </c>
+      <c r="F5" s="52">
+        <v>5</v>
+      </c>
+      <c r="G5" s="52">
+        <v>5</v>
+      </c>
+      <c r="H5" s="52">
+        <v>5</v>
+      </c>
+      <c r="I5" s="52">
+        <v>5</v>
+      </c>
+      <c r="J5" s="48">
+        <f>AVERAGE(C5:I5)</f>
+        <v>4.7142857142857144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="55">
+        <v>5</v>
+      </c>
+      <c r="B6" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="53">
+        <v>3</v>
+      </c>
+      <c r="D6" s="52">
+        <v>5</v>
+      </c>
+      <c r="E6" s="49">
+        <v>4</v>
+      </c>
+      <c r="F6" s="49">
+        <v>4</v>
+      </c>
+      <c r="G6" s="49">
+        <v>4</v>
+      </c>
+      <c r="H6" s="49">
+        <v>4</v>
+      </c>
+      <c r="I6" s="49">
+        <v>4</v>
+      </c>
+      <c r="J6" s="48">
+        <f>AVERAGE(C6:I6)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="51"/>
+      <c r="C7" s="50">
+        <f>AVERAGE(C2:C6)</f>
+        <v>3.2</v>
+      </c>
+      <c r="D7" s="49">
+        <f>AVERAGE(D2:D6)</f>
+        <v>4.2</v>
+      </c>
+      <c r="E7" s="49">
+        <f>AVERAGE(E2:E6)</f>
+        <v>4.2</v>
+      </c>
+      <c r="F7" s="49">
+        <f>AVERAGE(F2:F6)</f>
+        <v>4.2</v>
+      </c>
+      <c r="G7" s="49">
+        <f>AVERAGE(G2:G6)</f>
+        <v>4.2</v>
+      </c>
+      <c r="H7" s="49">
+        <f>AVERAGE(H2:H6)</f>
+        <v>4.2</v>
+      </c>
+      <c r="I7" s="49">
+        <f>AVERAGE(I2:I6)</f>
+        <v>4.2</v>
+      </c>
+      <c r="J7" s="48">
+        <f>AVERAGE(C7:I7)</f>
+        <v>4.0571428571428569</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A7:B7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11190,6 +12104,18 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E07E315-ADB6-42DD-8081-3A1ABCF7227E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -11539,7 +12465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E213F25C-3E94-44BC-9AF7-A52841AEF018}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
@@ -11680,11 +12606,11 @@
       <c r="A1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
@@ -11716,7 +12642,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="35" t="s">
         <v>23</v>
       </c>
       <c r="C4" t="s">
@@ -11724,37 +12650,37 @@
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="12"/>
+      <c r="B5" s="35"/>
       <c r="C5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="12"/>
+      <c r="B6" s="35"/>
       <c r="C6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="12"/>
+      <c r="B7" s="35"/>
       <c r="C7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="12"/>
+      <c r="B8" s="35"/>
       <c r="C8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="12"/>
+      <c r="B9" s="35"/>
       <c r="C9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="12"/>
+      <c r="B10" s="35"/>
       <c r="C10" t="s">
         <v>17</v>
       </c>

--- a/Книга1 (3) (1).xlsx
+++ b/Книга1 (3) (1).xlsx
@@ -8,31 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Project-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FEFB4E-9DC2-48FB-A650-14DA9736A951}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD4F30C-FDD0-446E-886B-62BA3EAFE73E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="14" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Зонтик" sheetId="1" r:id="rId1"/>
-    <sheet name="Кошка" sheetId="2" r:id="rId2"/>
-    <sheet name="Парабола" sheetId="3" r:id="rId3"/>
-    <sheet name="Тангенс" sheetId="4" r:id="rId4"/>
-    <sheet name="январь" sheetId="6" r:id="rId5"/>
-    <sheet name="февраль" sheetId="7" r:id="rId6"/>
-    <sheet name="март" sheetId="8" r:id="rId7"/>
-    <sheet name="апрель" sheetId="9" r:id="rId8"/>
-    <sheet name="май" sheetId="10" r:id="rId9"/>
-    <sheet name="июнь" sheetId="11" r:id="rId10"/>
-    <sheet name="июль" sheetId="12" r:id="rId11"/>
-    <sheet name="август" sheetId="13" r:id="rId12"/>
-    <sheet name="сентябрь" sheetId="14" r:id="rId13"/>
-    <sheet name="октябрь" sheetId="15" r:id="rId14"/>
-    <sheet name="ноябрь" sheetId="16" r:id="rId15"/>
-    <sheet name="декабрь" sheetId="17" r:id="rId16"/>
-    <sheet name="К.п.2" sheetId="18" r:id="rId17"/>
-    <sheet name="К.п.2(1)" sheetId="19" r:id="rId18"/>
-    <sheet name="К.п.2(2)" sheetId="20" r:id="rId19"/>
-    <sheet name="Лист1" sheetId="5" r:id="rId20"/>
+    <sheet name="январь" sheetId="6" r:id="rId1"/>
+    <sheet name="февраль" sheetId="7" r:id="rId2"/>
+    <sheet name="март" sheetId="8" r:id="rId3"/>
+    <sheet name="апрель" sheetId="9" r:id="rId4"/>
+    <sheet name="май" sheetId="10" r:id="rId5"/>
+    <sheet name="июнь" sheetId="11" r:id="rId6"/>
+    <sheet name="июль" sheetId="12" r:id="rId7"/>
+    <sheet name="август" sheetId="13" r:id="rId8"/>
+    <sheet name="сентябрь" sheetId="14" r:id="rId9"/>
+    <sheet name="октябрь" sheetId="15" r:id="rId10"/>
+    <sheet name="ноябрь" sheetId="16" r:id="rId11"/>
+    <sheet name="декабрь" sheetId="17" r:id="rId12"/>
+    <sheet name="К.п.2" sheetId="18" r:id="rId13"/>
+    <sheet name="К.п.2(1)" sheetId="19" r:id="rId14"/>
+    <sheet name="К.п.2(2)" sheetId="20" r:id="rId15"/>
+    <sheet name="К.п.3" sheetId="1" r:id="rId16"/>
+    <sheet name="К.п.3(1)" sheetId="2" r:id="rId17"/>
+    <sheet name="К.п.4" sheetId="3" r:id="rId18"/>
+    <sheet name="К.п.4(1)" sheetId="4" r:id="rId19"/>
+    <sheet name="К.п.5" sheetId="21" r:id="rId20"/>
+    <sheet name="К.п.5(1)" sheetId="22" r:id="rId21"/>
+    <sheet name="Накладная(к.п.5)" sheetId="23" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="158">
   <si>
     <t>x</t>
   </si>
@@ -395,17 +397,147 @@
   </si>
   <si>
     <t>№№</t>
+  </si>
+  <si>
+    <t>Сапоги - скороходы</t>
+  </si>
+  <si>
+    <t>Скатерть - самобранка</t>
+  </si>
+  <si>
+    <t>Ковер  - самолет</t>
+  </si>
+  <si>
+    <t>Вода мертвая</t>
+  </si>
+  <si>
+    <t>Вода живая</t>
+  </si>
+  <si>
+    <t>Зелье приворотное</t>
+  </si>
+  <si>
+    <t>Палочка волшебная</t>
+  </si>
+  <si>
+    <t>Цена(руб.)</t>
+  </si>
+  <si>
+    <t>Цена($)</t>
+  </si>
+  <si>
+    <t>Наим. товара</t>
+  </si>
+  <si>
+    <t>№ поз</t>
+  </si>
+  <si>
+    <t>Курс $</t>
+  </si>
+  <si>
+    <t>Прайс лист на</t>
+  </si>
+  <si>
+    <t>Аленький цветочек</t>
+  </si>
+  <si>
+    <t>ООО</t>
+  </si>
+  <si>
+    <t>Египет</t>
+  </si>
+  <si>
+    <t>Турция</t>
+  </si>
+  <si>
+    <t>Бельгия</t>
+  </si>
+  <si>
+    <t>Болгария</t>
+  </si>
+  <si>
+    <t>Англия</t>
+  </si>
+  <si>
+    <t>Цена в рублях</t>
+  </si>
+  <si>
+    <t>Цена в долларах</t>
+  </si>
+  <si>
+    <t>Страна</t>
+  </si>
+  <si>
+    <t>рублей</t>
+  </si>
+  <si>
+    <t>Курс доллара:</t>
+  </si>
+  <si>
+    <t>Итоговая сумма</t>
+  </si>
+  <si>
+    <t>Курс доллара</t>
+  </si>
+  <si>
+    <t>Чайник</t>
+  </si>
+  <si>
+    <t>Магнитофон</t>
+  </si>
+  <si>
+    <t>Фен</t>
+  </si>
+  <si>
+    <t>Утюг</t>
+  </si>
+  <si>
+    <t>СВЧ печь</t>
+  </si>
+  <si>
+    <t>Телевизор</t>
+  </si>
+  <si>
+    <t>Тостер</t>
+  </si>
+  <si>
+    <t>Плеер</t>
+  </si>
+  <si>
+    <t>Холодильник</t>
+  </si>
+  <si>
+    <t>Кофеварка</t>
+  </si>
+  <si>
+    <t>Сумма в руб.</t>
+  </si>
+  <si>
+    <t>Количество</t>
+  </si>
+  <si>
+    <t>Цена в руб.</t>
+  </si>
+  <si>
+    <t>Цена в $</t>
+  </si>
+  <si>
+    <t>Наименование товара</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="_-* #,##0&quot;р.&quot;_-;\-* #,##0&quot;р.&quot;_-;_-* &quot;-&quot;&quot;р.&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="167" formatCode="[$$-409]#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="#,##0\ &quot;₽&quot;"/>
+    <numFmt numFmtId="169" formatCode="[$$-409]#,##0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -475,8 +607,26 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -566,8 +716,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -633,11 +788,53 @@
         <color auto="1"/>
       </diagonal>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -712,24 +909,6 @@
     <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -755,9 +934,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -776,8 +952,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="distributed"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="5" xfId="1"/>
+    <xf numFmtId="166" fontId="10" fillId="17" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="17" borderId="5" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="5" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="17" borderId="5" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="5" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="17" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="17" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Вывод" xfId="1" builtinId="21"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -828,7 +1073,7 @@
           <c:order val="0"/>
           <c:xVal>
             <c:numRef>
-              <c:f>Зонтик!$A$2:$A$26</c:f>
+              <c:f>'К.п.3'!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -912,7 +1157,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Зонтик!$B$2:$B$26</c:f>
+              <c:f>'К.п.3'!$B$2:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -1006,7 +1251,7 @@
           <c:order val="1"/>
           <c:xVal>
             <c:numRef>
-              <c:f>Зонтик!$A$2:$A$26</c:f>
+              <c:f>'К.п.3'!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -1090,7 +1335,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Зонтик!$C$2:$C$26</c:f>
+              <c:f>'К.п.3'!$C$2:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -1136,7 +1381,7 @@
           <c:order val="2"/>
           <c:xVal>
             <c:numRef>
-              <c:f>Зонтик!$A$2:$A$26</c:f>
+              <c:f>'К.п.3'!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -1220,7 +1465,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Зонтик!$D$2:$D$26</c:f>
+              <c:f>'К.п.3'!$D$2:$D$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -1266,7 +1511,7 @@
           <c:order val="3"/>
           <c:xVal>
             <c:numRef>
-              <c:f>Зонтик!$A$2:$A$26</c:f>
+              <c:f>'К.п.3'!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -1350,7 +1595,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Зонтик!$E$2:$E$26</c:f>
+              <c:f>'К.п.3'!$E$2:$E$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -1396,7 +1641,7 @@
           <c:order val="4"/>
           <c:xVal>
             <c:numRef>
-              <c:f>Зонтик!$A$2:$A$26</c:f>
+              <c:f>'К.п.3'!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -1480,7 +1725,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Зонтик!$F$2:$F$26</c:f>
+              <c:f>'К.п.3'!$F$2:$F$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -1514,7 +1759,7 @@
           <c:order val="5"/>
           <c:xVal>
             <c:numRef>
-              <c:f>Зонтик!$A$2:$A$26</c:f>
+              <c:f>'К.п.3'!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -1598,7 +1843,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Зонтик!$G$2:$G$26</c:f>
+              <c:f>'К.п.3'!$G$2:$G$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -1711,7 +1956,7 @@
           <c:order val="0"/>
           <c:xVal>
             <c:numRef>
-              <c:f>Кошка!$A$2:$A$134</c:f>
+              <c:f>'К.п.3(1)'!$A$2:$A$134</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="133"/>
@@ -2119,7 +2364,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Кошка!$B$2:$B$134</c:f>
+              <c:f>'К.п.3(1)'!$B$2:$B$134</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="133"/>
@@ -2429,7 +2674,7 @@
           <c:order val="1"/>
           <c:xVal>
             <c:numRef>
-              <c:f>Кошка!$A$2:$A$134</c:f>
+              <c:f>'К.п.3(1)'!$A$2:$A$134</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="133"/>
@@ -2837,7 +3082,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Кошка!$C$2:$C$134</c:f>
+              <c:f>'К.п.3(1)'!$C$2:$C$134</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="133"/>
@@ -3039,7 +3284,7 @@
           <c:order val="2"/>
           <c:xVal>
             <c:numRef>
-              <c:f>Кошка!$A$2:$A$134</c:f>
+              <c:f>'К.п.3(1)'!$A$2:$A$134</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="133"/>
@@ -3447,7 +3692,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Кошка!$D$2:$D$134</c:f>
+              <c:f>'К.п.3(1)'!$D$2:$D$134</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="133"/>
@@ -3532,7 +3777,7 @@
           <c:order val="3"/>
           <c:xVal>
             <c:numRef>
-              <c:f>Кошка!$A$2:$A$134</c:f>
+              <c:f>'К.п.3(1)'!$A$2:$A$134</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="133"/>
@@ -3940,7 +4185,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Кошка!$E$2:$E$134</c:f>
+              <c:f>'К.п.3(1)'!$E$2:$E$134</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="133"/>
@@ -4031,7 +4276,7 @@
           <c:order val="4"/>
           <c:xVal>
             <c:numRef>
-              <c:f>Кошка!$A$2:$A$134</c:f>
+              <c:f>'К.п.3(1)'!$A$2:$A$134</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="133"/>
@@ -4439,7 +4684,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Кошка!$F$2:$F$134</c:f>
+              <c:f>'К.п.3(1)'!$F$2:$F$134</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="133"/>
@@ -4563,7 +4808,7 @@
           <c:order val="5"/>
           <c:xVal>
             <c:numRef>
-              <c:f>Кошка!$A$2:$A$134</c:f>
+              <c:f>'К.п.3(1)'!$A$2:$A$134</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="133"/>
@@ -4971,7 +5216,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Кошка!$G$2:$G$134</c:f>
+              <c:f>'К.п.3(1)'!$G$2:$G$134</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="133"/>
@@ -5023,7 +5268,7 @@
           <c:order val="6"/>
           <c:xVal>
             <c:numRef>
-              <c:f>Кошка!$A$2:$A$134</c:f>
+              <c:f>'К.п.3(1)'!$A$2:$A$134</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="133"/>
@@ -5431,7 +5676,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Кошка!$H$2:$H$134</c:f>
+              <c:f>'К.п.3(1)'!$H$2:$H$134</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="133"/>
@@ -5483,7 +5728,7 @@
           <c:order val="7"/>
           <c:xVal>
             <c:numRef>
-              <c:f>Кошка!$A$2:$A$134</c:f>
+              <c:f>'К.п.3(1)'!$A$2:$A$134</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="133"/>
@@ -5891,7 +6136,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Кошка!$I$2:$I$134</c:f>
+              <c:f>'К.п.3(1)'!$I$2:$I$134</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="133"/>
@@ -6076,7 +6321,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Парабола!$A$3:$A$13</c:f>
+              <c:f>'К.п.4'!$A$3:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -6118,7 +6363,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Парабола!$B$3:$B$13</c:f>
+              <c:f>'К.п.4'!$B$3:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -6431,7 +6676,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Тангенс!$A$3:$A$19</c:f>
+              <c:f>'К.п.4(1)'!$A$3:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -6491,7 +6736,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Тангенс!$B$3:$B$19</c:f>
+              <c:f>'К.п.4(1)'!$B$3:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -8339,623 +8584,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>-12</v>
-      </c>
-      <c r="B2">
-        <f>-1/18*POWER(A2,2)+12</f>
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <f>(-1/8)*POWER(A2+8,2)+6</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>-11</v>
-      </c>
-      <c r="B3">
-        <f t="shared" ref="B3:B26" si="0">-1/18*POWER(A3,2)+12</f>
-        <v>5.2777777777777786</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D10" si="1">(-1/8)*POWER(A3+8,2)+6</f>
-        <v>4.875</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>-10</v>
-      </c>
-      <c r="B4">
-        <f t="shared" si="0"/>
-        <v>6.4444444444444446</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="1"/>
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>-9</v>
-      </c>
-      <c r="B5">
-        <f t="shared" si="0"/>
-        <v>7.5</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="1"/>
-        <v>5.875</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>-8</v>
-      </c>
-      <c r="B6">
-        <f t="shared" si="0"/>
-        <v>8.4444444444444446</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>-7</v>
-      </c>
-      <c r="B7">
-        <f t="shared" si="0"/>
-        <v>9.2777777777777786</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="1"/>
-        <v>5.875</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>-6</v>
-      </c>
-      <c r="B8">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="1"/>
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>-5</v>
-      </c>
-      <c r="B9">
-        <f t="shared" si="0"/>
-        <v>10.611111111111111</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="1"/>
-        <v>4.875</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>-4</v>
-      </c>
-      <c r="B10">
-        <f t="shared" si="0"/>
-        <v>11.111111111111111</v>
-      </c>
-      <c r="C10">
-        <f>(-1/8)*POWER(A10,2)+6</f>
-        <v>4</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F10">
-        <f>2*POWER(A10+3,2)-9</f>
-        <v>-7</v>
-      </c>
-      <c r="G10">
-        <f>1.5+POWER(A10+3,2)-10</f>
-        <v>-7.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>-3</v>
-      </c>
-      <c r="B11">
-        <f t="shared" si="0"/>
-        <v>11.5</v>
-      </c>
-      <c r="C11">
-        <f t="shared" ref="C11:C18" si="2">(-1/8)*POWER(A11,2)+6</f>
-        <v>4.875</v>
-      </c>
-      <c r="F11">
-        <f t="shared" ref="F11:F14" si="3">2*POWER(A11+3,2)-9</f>
-        <v>-9</v>
-      </c>
-      <c r="G11">
-        <f t="shared" ref="G11:G14" si="4">1.5+POWER(A11+3,2)-10</f>
-        <v>-8.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>-2</v>
-      </c>
-      <c r="B12">
-        <f t="shared" si="0"/>
-        <v>11.777777777777779</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="2"/>
-        <v>5.5</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="3"/>
-        <v>-7</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="4"/>
-        <v>-7.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>-1</v>
-      </c>
-      <c r="B13">
-        <f t="shared" si="0"/>
-        <v>11.944444444444445</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="2"/>
-        <v>5.875</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="4"/>
-        <v>-4.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>0</v>
-      </c>
-      <c r="B14">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="4"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15">
-        <f t="shared" si="0"/>
-        <v>11.944444444444445</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="2"/>
-        <v>5.875</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2</v>
-      </c>
-      <c r="B16">
-        <f t="shared" si="0"/>
-        <v>11.777777777777779</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="2"/>
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>3</v>
-      </c>
-      <c r="B17">
-        <f t="shared" si="0"/>
-        <v>11.5</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="2"/>
-        <v>4.875</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>4</v>
-      </c>
-      <c r="B18">
-        <f t="shared" si="0"/>
-        <v>11.111111111111111</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="E18">
-        <f>(-1/8)*POWER(A18-8,2)+6</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>5</v>
-      </c>
-      <c r="B19">
-        <f t="shared" si="0"/>
-        <v>10.611111111111111</v>
-      </c>
-      <c r="E19">
-        <f t="shared" ref="E19:E26" si="5">(-1/8)*POWER(A19-8,2)+6</f>
-        <v>4.875</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>6</v>
-      </c>
-      <c r="B20">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="5"/>
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>7</v>
-      </c>
-      <c r="B21">
-        <f t="shared" si="0"/>
-        <v>9.2777777777777786</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="5"/>
-        <v>5.875</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>8</v>
-      </c>
-      <c r="B22">
-        <f t="shared" si="0"/>
-        <v>8.4444444444444446</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>9</v>
-      </c>
-      <c r="B23">
-        <f t="shared" si="0"/>
-        <v>7.5</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="5"/>
-        <v>5.875</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>10</v>
-      </c>
-      <c r="B24">
-        <f t="shared" si="0"/>
-        <v>6.4444444444444446</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="5"/>
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>11</v>
-      </c>
-      <c r="B25">
-        <f t="shared" si="0"/>
-        <v>5.2777777777777786</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="5"/>
-        <v>4.875</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>12</v>
-      </c>
-      <c r="B26">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC684FCF-FEB1-4B22-BAA3-87EF34D70492}">
-  <dimension ref="B3:E11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C3" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="36"/>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="36"/>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="36"/>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="36"/>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="36"/>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="36"/>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="36"/>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="B4:B11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16ECD2FE-37F0-42ED-8DCD-08A971AED461}">
-  <dimension ref="A1:C14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="11"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="37"/>
-      <c r="C4" s="38"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="37"/>
-      <c r="C5" s="38"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="37"/>
-      <c r="C6" s="38"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="37"/>
-      <c r="C7" s="38"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="37"/>
-      <c r="C8" s="38"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="37"/>
-      <c r="C9" s="38"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="37"/>
-      <c r="C10" s="38"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="37"/>
-      <c r="C11" s="38"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="37"/>
-      <c r="C12" s="38"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="37"/>
-      <c r="C13" s="38"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="37"/>
-      <c r="C14" s="38"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B3:B14"/>
-    <mergeCell ref="C3:C14"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9829BEE-9376-4B08-B230-269B3649215E}">
-  <dimension ref="A1:D12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E213F25C-3E94-44BC-9AF7-A52841AEF018}">
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
@@ -8963,344 +8593,77 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
-    <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="5" max="5" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="15"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="14">
-        <v>250</v>
-      </c>
-      <c r="C2" s="13">
-        <f>PRODUCT(B2,1024)</f>
-        <v>256000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="14">
-        <v>0.7</v>
-      </c>
-      <c r="C3" s="13">
-        <f>PRODUCT(B3,1024)</f>
-        <v>716.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="14">
-        <v>4.7</v>
-      </c>
-      <c r="C4" s="13">
-        <f>PRODUCT(B4,1024)</f>
-        <v>4812.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="14">
-        <v>16</v>
-      </c>
-      <c r="C5" s="13">
-        <f>PRODUCT(B5,1024)</f>
-        <v>16384</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="12"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
+    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="5" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="7" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>20</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>22</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>24</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="3">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D92D9D7-B7F4-4BBE-9165-76B875C2DD41}">
-  <dimension ref="A1:E14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="21">
-        <v>24</v>
-      </c>
-      <c r="C3" s="21">
-        <v>8</v>
-      </c>
-      <c r="D3" s="21">
-        <v>22</v>
-      </c>
-      <c r="E3" s="20">
-        <f t="shared" ref="E3:E13" si="0">PRODUCT(B3:D3)</f>
-        <v>4224</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="21">
-        <v>16</v>
-      </c>
-      <c r="C4" s="21">
-        <v>7</v>
-      </c>
-      <c r="D4" s="21">
-        <v>18</v>
-      </c>
-      <c r="E4" s="20">
-        <f t="shared" si="0"/>
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="21">
-        <v>36</v>
-      </c>
-      <c r="C5" s="21">
-        <v>8</v>
-      </c>
-      <c r="D5" s="21">
-        <v>20</v>
-      </c>
-      <c r="E5" s="20">
-        <f t="shared" si="0"/>
-        <v>5760</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="21">
-        <v>20</v>
-      </c>
-      <c r="C6" s="21">
-        <v>6</v>
-      </c>
-      <c r="D6" s="21">
-        <v>19</v>
-      </c>
-      <c r="E6" s="20">
-        <f t="shared" si="0"/>
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="21">
-        <v>19</v>
-      </c>
-      <c r="C7" s="21">
-        <v>7</v>
-      </c>
-      <c r="D7" s="21">
-        <v>21</v>
-      </c>
-      <c r="E7" s="20">
-        <f t="shared" si="0"/>
-        <v>2793</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="21">
-        <v>34</v>
-      </c>
-      <c r="C8" s="21">
-        <v>6</v>
-      </c>
-      <c r="D8" s="21">
-        <v>22</v>
-      </c>
-      <c r="E8" s="20">
-        <f t="shared" si="0"/>
-        <v>4488</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="21">
-        <v>30</v>
-      </c>
-      <c r="C9" s="21">
-        <v>7</v>
-      </c>
-      <c r="D9" s="21">
-        <v>20</v>
-      </c>
-      <c r="E9" s="20">
-        <f t="shared" si="0"/>
-        <v>4200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="21">
-        <v>25</v>
-      </c>
-      <c r="C10" s="21">
-        <v>8</v>
-      </c>
-      <c r="D10" s="21">
-        <v>19</v>
-      </c>
-      <c r="E10" s="20">
-        <f t="shared" si="0"/>
-        <v>3800</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="21">
-        <v>31</v>
-      </c>
-      <c r="C11" s="21">
-        <v>8</v>
-      </c>
-      <c r="D11" s="21">
-        <v>22</v>
-      </c>
-      <c r="E11" s="20">
-        <f t="shared" si="0"/>
-        <v>5456</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="21">
-        <v>33</v>
-      </c>
-      <c r="C12" s="21">
-        <v>7</v>
-      </c>
-      <c r="D12" s="21">
-        <v>21</v>
-      </c>
-      <c r="E12" s="20">
-        <f t="shared" si="0"/>
-        <v>4851</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="21">
-        <v>15</v>
-      </c>
-      <c r="C13" s="21">
-        <v>6</v>
-      </c>
-      <c r="D13" s="21">
-        <v>19</v>
-      </c>
-      <c r="E13" s="20">
-        <f t="shared" si="0"/>
-        <v>1710</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="17">
-        <f>SUM(E3:E13)</f>
-        <v>41578</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47719193-3A5A-4A09-90F7-A472DE83C262}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -9316,11 +8679,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -9385,7 +8748,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA51C0C-C07F-4CC1-B611-D0FF0DD38E1D}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -9400,10 +8763,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="35"/>
+      <c r="B1" s="70"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
@@ -9438,7 +8801,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7FCE160-FE6E-4D46-8BF4-3071A4A6DF63}">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -9622,7 +8985,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315E6957-99EB-4DAD-A813-C09BEB04174B}">
   <dimension ref="A1:F12"/>
   <sheetViews>
@@ -9641,32 +9004,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
     </row>
     <row r="2" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="36" t="s">
         <v>85</v>
       </c>
     </row>
@@ -9684,16 +9047,16 @@
         <v>3</v>
       </c>
       <c r="E3" s="4">
-        <f>SUM(B3:D3)</f>
+        <f t="shared" ref="E3:E12" si="0">SUM(B3:D3)</f>
         <v>12</v>
       </c>
-      <c r="F3" s="40">
-        <f>AVERAGE(B3:D3)</f>
+      <c r="F3" s="34">
+        <f t="shared" ref="F3:F12" si="1">AVERAGE(B3:D3)</f>
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="35" t="s">
         <v>83</v>
       </c>
       <c r="B4" s="4">
@@ -9706,11 +9069,11 @@
         <v>4</v>
       </c>
       <c r="E4" s="4">
-        <f>SUM(B4:D4)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F4" s="40">
-        <f>AVERAGE(B4:D4)</f>
+      <c r="F4" s="34">
+        <f t="shared" si="1"/>
         <v>4.333333333333333</v>
       </c>
     </row>
@@ -9728,16 +9091,16 @@
         <v>4</v>
       </c>
       <c r="E5" s="4">
-        <f>SUM(B5:D5)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F5" s="40">
-        <f>AVERAGE(B5:D5)</f>
+      <c r="F5" s="34">
+        <f t="shared" si="1"/>
         <v>4.333333333333333</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="35" t="s">
         <v>81</v>
       </c>
       <c r="B6" s="4">
@@ -9750,11 +9113,11 @@
         <v>5</v>
       </c>
       <c r="E6" s="4">
-        <f>SUM(B6:D6)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F6" s="40">
-        <f>AVERAGE(B6:D6)</f>
+      <c r="F6" s="34">
+        <f t="shared" si="1"/>
         <v>4.333333333333333</v>
       </c>
     </row>
@@ -9772,16 +9135,16 @@
         <v>0</v>
       </c>
       <c r="E7" s="4">
-        <f>SUM(B7:D7)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F7" s="40">
-        <f>AVERAGE(B7:D7)</f>
+      <c r="F7" s="34">
+        <f t="shared" si="1"/>
         <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="35" t="s">
         <v>79</v>
       </c>
       <c r="B8" s="4">
@@ -9794,16 +9157,16 @@
         <v>2</v>
       </c>
       <c r="E8" s="4">
-        <f>SUM(B8:D8)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F8" s="40">
-        <f>AVERAGE(B8:D8)</f>
+      <c r="F8" s="34">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="35" t="s">
         <v>78</v>
       </c>
       <c r="B9" s="4">
@@ -9816,16 +9179,16 @@
         <v>5</v>
       </c>
       <c r="E9" s="4">
-        <f>SUM(B9:D9)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="F9" s="40">
-        <f>AVERAGE(B9:D9)</f>
+      <c r="F9" s="34">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="35" t="s">
         <v>77</v>
       </c>
       <c r="B10" s="4">
@@ -9838,16 +9201,16 @@
         <v>4</v>
       </c>
       <c r="E10" s="4">
-        <f>SUM(B10:D10)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="F10" s="40">
-        <f>AVERAGE(B10:D10)</f>
+      <c r="F10" s="34">
+        <f t="shared" si="1"/>
         <v>3.6666666666666665</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="35" t="s">
         <v>76</v>
       </c>
       <c r="B11" s="4">
@@ -9860,16 +9223,16 @@
         <v>4</v>
       </c>
       <c r="E11" s="4">
-        <f>SUM(B11:D11)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="F11" s="40">
-        <f>AVERAGE(B11:D11)</f>
+      <c r="F11" s="34">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="35" t="s">
         <v>75</v>
       </c>
       <c r="B12" s="4">
@@ -9882,11 +9245,11 @@
         <v>4</v>
       </c>
       <c r="E12" s="4">
-        <f>SUM(B12:D12)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="F12" s="40">
-        <f>AVERAGE(B12:D12)</f>
+      <c r="F12" s="34">
+        <f t="shared" si="1"/>
         <v>3.6666666666666665</v>
       </c>
     </row>
@@ -9899,7 +9262,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8FC902-718D-4D14-9498-81D14B340DD8}">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -9916,16 +9279,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="41" t="s">
         <v>100</v>
       </c>
     </row>
@@ -10009,7 +9372,7 @@
       <c r="C7" s="4">
         <v>281</v>
       </c>
-      <c r="D7" s="46">
+      <c r="D7" s="40">
         <v>177</v>
       </c>
     </row>
@@ -10035,7 +9398,7 @@
       <c r="D10" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="40">
+      <c r="E10" s="34">
         <f>AVERAGE(D2:D7)</f>
         <v>461.66666666666669</v>
       </c>
@@ -10045,11 +9408,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F3A0391-05FF-426E-9BC7-1BB44CE61D4B}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -10066,237 +9429,237 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="I1" s="58" t="s">
+      <c r="I1" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="J1" s="50" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="55">
+      <c r="A2" s="48">
         <v>1</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="49">
+      <c r="C2" s="43">
         <v>4</v>
       </c>
-      <c r="D2" s="52">
+      <c r="D2" s="45">
         <v>5</v>
       </c>
-      <c r="E2" s="52">
+      <c r="E2" s="45">
         <v>5</v>
       </c>
-      <c r="F2" s="52">
+      <c r="F2" s="45">
         <v>5</v>
       </c>
-      <c r="G2" s="52">
+      <c r="G2" s="45">
         <v>5</v>
       </c>
-      <c r="H2" s="52">
+      <c r="H2" s="45">
         <v>5</v>
       </c>
-      <c r="I2" s="52">
+      <c r="I2" s="45">
         <v>5</v>
       </c>
-      <c r="J2" s="48">
-        <f>AVERAGE(C2:I2)</f>
+      <c r="J2" s="42">
+        <f t="shared" ref="J2:J7" si="0">AVERAGE(C2:I2)</f>
         <v>4.8571428571428568</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="55">
+      <c r="A3" s="48">
         <v>2</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="53">
+      <c r="C3" s="46">
         <v>3</v>
       </c>
-      <c r="D3" s="53">
+      <c r="D3" s="46">
         <v>3</v>
       </c>
-      <c r="E3" s="53">
+      <c r="E3" s="46">
         <v>3</v>
       </c>
-      <c r="F3" s="53">
+      <c r="F3" s="46">
         <v>3</v>
       </c>
-      <c r="G3" s="53">
+      <c r="G3" s="46">
         <v>3</v>
       </c>
-      <c r="H3" s="53">
+      <c r="H3" s="46">
         <v>3</v>
       </c>
-      <c r="I3" s="53">
+      <c r="I3" s="46">
         <v>3</v>
       </c>
-      <c r="J3" s="56">
-        <f>AVERAGE(C3:I3)</f>
+      <c r="J3" s="49">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="55">
+      <c r="A4" s="48">
         <v>3</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="53">
+      <c r="C4" s="46">
         <v>2</v>
       </c>
-      <c r="D4" s="49">
+      <c r="D4" s="43">
         <v>4</v>
       </c>
-      <c r="E4" s="49">
+      <c r="E4" s="43">
         <v>4</v>
       </c>
-      <c r="F4" s="49">
+      <c r="F4" s="43">
         <v>4</v>
       </c>
-      <c r="G4" s="49">
+      <c r="G4" s="43">
         <v>4</v>
       </c>
-      <c r="H4" s="49">
+      <c r="H4" s="43">
         <v>4</v>
       </c>
-      <c r="I4" s="49">
+      <c r="I4" s="43">
         <v>4</v>
       </c>
-      <c r="J4" s="56">
-        <f>AVERAGE(C4:I4)</f>
+      <c r="J4" s="49">
+        <f t="shared" si="0"/>
         <v>3.7142857142857144</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="55">
+      <c r="A5" s="48">
         <v>4</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="49">
+      <c r="C5" s="43">
         <v>4</v>
       </c>
-      <c r="D5" s="49">
+      <c r="D5" s="43">
         <v>4</v>
       </c>
-      <c r="E5" s="52">
+      <c r="E5" s="45">
         <v>5</v>
       </c>
-      <c r="F5" s="52">
+      <c r="F5" s="45">
         <v>5</v>
       </c>
-      <c r="G5" s="52">
+      <c r="G5" s="45">
         <v>5</v>
       </c>
-      <c r="H5" s="52">
+      <c r="H5" s="45">
         <v>5</v>
       </c>
-      <c r="I5" s="52">
+      <c r="I5" s="45">
         <v>5</v>
       </c>
-      <c r="J5" s="48">
-        <f>AVERAGE(C5:I5)</f>
+      <c r="J5" s="42">
+        <f t="shared" si="0"/>
         <v>4.7142857142857144</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="55">
+      <c r="A6" s="48">
         <v>5</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="C6" s="53">
+      <c r="C6" s="46">
         <v>3</v>
       </c>
-      <c r="D6" s="52">
+      <c r="D6" s="45">
         <v>5</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E6" s="43">
         <v>4</v>
       </c>
-      <c r="F6" s="49">
+      <c r="F6" s="43">
         <v>4</v>
       </c>
-      <c r="G6" s="49">
+      <c r="G6" s="43">
         <v>4</v>
       </c>
-      <c r="H6" s="49">
+      <c r="H6" s="43">
         <v>4</v>
       </c>
-      <c r="I6" s="49">
+      <c r="I6" s="43">
         <v>4</v>
       </c>
-      <c r="J6" s="48">
-        <f>AVERAGE(C6:I6)</f>
+      <c r="J6" s="42">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="50">
-        <f>AVERAGE(C2:C6)</f>
+      <c r="B7" s="75"/>
+      <c r="C7" s="44">
+        <f t="shared" ref="C7:I7" si="1">AVERAGE(C2:C6)</f>
         <v>3.2</v>
       </c>
-      <c r="D7" s="49">
-        <f>AVERAGE(D2:D6)</f>
+      <c r="D7" s="43">
+        <f t="shared" si="1"/>
         <v>4.2</v>
       </c>
-      <c r="E7" s="49">
-        <f>AVERAGE(E2:E6)</f>
+      <c r="E7" s="43">
+        <f t="shared" si="1"/>
         <v>4.2</v>
       </c>
-      <c r="F7" s="49">
-        <f>AVERAGE(F2:F6)</f>
+      <c r="F7" s="43">
+        <f t="shared" si="1"/>
         <v>4.2</v>
       </c>
-      <c r="G7" s="49">
-        <f>AVERAGE(G2:G6)</f>
+      <c r="G7" s="43">
+        <f t="shared" si="1"/>
         <v>4.2</v>
       </c>
-      <c r="H7" s="49">
-        <f>AVERAGE(H2:H6)</f>
+      <c r="H7" s="43">
+        <f t="shared" si="1"/>
         <v>4.2</v>
       </c>
-      <c r="I7" s="49">
-        <f>AVERAGE(I2:I6)</f>
+      <c r="I7" s="43">
+        <f t="shared" si="1"/>
         <v>4.2</v>
       </c>
-      <c r="J7" s="48">
-        <f>AVERAGE(C7:I7)</f>
+      <c r="J7" s="42">
+        <f t="shared" si="0"/>
         <v>4.0571428571428569</v>
       </c>
     </row>
@@ -10309,7 +9672,424 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>-12</v>
+      </c>
+      <c r="B2">
+        <f>-1/18*POWER(A2,2)+12</f>
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <f>(-1/8)*POWER(A2+8,2)+6</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>-11</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B26" si="0">-1/18*POWER(A3,2)+12</f>
+        <v>5.2777777777777786</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D10" si="1">(-1/8)*POWER(A3+8,2)+6</f>
+        <v>4.875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>-10</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>6.4444444444444446</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>-9</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>5.875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>-8</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>8.4444444444444446</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>-7</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>9.2777777777777786</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>5.875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>-6</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>-5</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>10.611111111111111</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>4.875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>-4</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="C10">
+        <f>(-1/8)*POWER(A10,2)+6</f>
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <f>2*POWER(A10+3,2)-9</f>
+        <v>-7</v>
+      </c>
+      <c r="G10">
+        <f>1.5+POWER(A10+3,2)-10</f>
+        <v>-7.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>-3</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>11.5</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ref="C11:C18" si="2">(-1/8)*POWER(A11,2)+6</f>
+        <v>4.875</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ref="F11:F14" si="3">2*POWER(A11+3,2)-9</f>
+        <v>-9</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ref="G11:G14" si="4">1.5+POWER(A11+3,2)-10</f>
+        <v>-8.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>-2</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>11.777777777777779</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="2"/>
+        <v>5.5</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>-7</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="4"/>
+        <v>-7.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>-1</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>11.944444444444445</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="2"/>
+        <v>5.875</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="4"/>
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>11.944444444444445</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="2"/>
+        <v>5.875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>11.777777777777779</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="2"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>11.5</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="2"/>
+        <v>4.875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <f>(-1/8)*POWER(A18-8,2)+6</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>10.611111111111111</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ref="E19:E26" si="5">(-1/8)*POWER(A19-8,2)+6</f>
+        <v>4.875</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="5"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>9.2777777777777786</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="5"/>
+        <v>5.875</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>8.4444444444444446</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="5"/>
+        <v>5.875</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>6.4444444444444446</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="5"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>11</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>5.2777777777777786</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="5"/>
+        <v>4.875</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>12</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I134"/>
   <sheetViews>
@@ -12107,19 +11887,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E07E315-ADB6-42DD-8081-3A1ABCF7227E}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE3279C-4CAA-4681-9FC0-54E1C7C5E1FF}">
   <dimension ref="A1:B13"/>
   <sheetViews>
@@ -12260,7 +12028,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83EEDF02-97C6-46B5-A32F-F363BBDE7F64}">
   <dimension ref="A1:B19"/>
   <sheetViews>
@@ -12461,87 +12229,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E213F25C-3E94-44BC-9AF7-A52841AEF018}">
-  <dimension ref="A1:E24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="3" max="3" width="9.140625" style="2"/>
-    <col min="5" max="5" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="5" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="7" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>20</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="3">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>22</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="3">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>24</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="3">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76CBE251-CC92-4811-8FDB-0DA7CBB62861}">
   <dimension ref="B2:B3"/>
   <sheetViews>
@@ -12568,7 +12256,836 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{851AE1E7-8EB7-40FC-85CD-1FF397A46894}">
+  <dimension ref="A1:I30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="56" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="76" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="76"/>
+      <c r="C2" s="58">
+        <f ca="1">TODAY()</f>
+        <v>44956</v>
+      </c>
+      <c r="D2" s="56"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="56" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56">
+        <v>31.5</v>
+      </c>
+      <c r="D3" s="56"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="57">
+        <v>1</v>
+      </c>
+      <c r="B5" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="55">
+        <v>300</v>
+      </c>
+      <c r="D5" s="54">
+        <f t="shared" ref="D5:D11" si="0">C5*$C$3</f>
+        <v>9450</v>
+      </c>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="57">
+        <v>2</v>
+      </c>
+      <c r="B6" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="55">
+        <v>100</v>
+      </c>
+      <c r="D6" s="54">
+        <f t="shared" si="0"/>
+        <v>3150</v>
+      </c>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="57">
+        <v>3</v>
+      </c>
+      <c r="B7" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="55">
+        <v>50</v>
+      </c>
+      <c r="D7" s="54">
+        <f t="shared" si="0"/>
+        <v>1575</v>
+      </c>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="57">
+        <v>4</v>
+      </c>
+      <c r="B8" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="55">
+        <v>400</v>
+      </c>
+      <c r="D8" s="54">
+        <f t="shared" si="0"/>
+        <v>12600</v>
+      </c>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="57">
+        <v>5</v>
+      </c>
+      <c r="B9" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="55">
+        <v>1200</v>
+      </c>
+      <c r="D9" s="54">
+        <f t="shared" si="0"/>
+        <v>37800</v>
+      </c>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="57">
+        <v>6</v>
+      </c>
+      <c r="B10" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="55">
+        <v>700</v>
+      </c>
+      <c r="D10" s="54">
+        <f t="shared" si="0"/>
+        <v>22050</v>
+      </c>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="57">
+        <v>7</v>
+      </c>
+      <c r="B11" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="55">
+        <v>200</v>
+      </c>
+      <c r="D11" s="54">
+        <f t="shared" si="0"/>
+        <v>6300</v>
+      </c>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="53"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="53"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="53"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="53"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="53"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="53"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="53"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="53"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="53"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="53"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="53"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="53"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="53"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="53"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="53"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="53"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="53"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="53"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="53"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C50954-6C20-4F9F-8282-F710518CE89F}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="36">
+        <v>67.5</v>
+      </c>
+      <c r="C1" s="61" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="57" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="60">
+        <v>1350</v>
+      </c>
+      <c r="C3" s="59">
+        <f>B3*$B$1</f>
+        <v>91125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="60">
+        <v>450</v>
+      </c>
+      <c r="C4" s="59">
+        <f>B4*$B$1</f>
+        <v>30375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="60">
+        <v>1180</v>
+      </c>
+      <c r="C5" s="59">
+        <f>B5*$B$1</f>
+        <v>79650</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="60">
+        <v>780</v>
+      </c>
+      <c r="C6" s="59">
+        <f>B6*$B$1</f>
+        <v>52650</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="60">
+        <v>560</v>
+      </c>
+      <c r="C7" s="59">
+        <f>B7*$B$1</f>
+        <v>37800</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE8197FD-3BAC-4825-B4F5-02369B0A65D1}">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12:E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="62"/>
+      <c r="B1" s="66" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="66" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="68" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1" s="66" t="s">
+        <v>154</v>
+      </c>
+      <c r="F1" s="66" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="66">
+        <v>1</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="67">
+        <v>70</v>
+      </c>
+      <c r="D2" s="65">
+        <f t="shared" ref="D2:D11" si="0">C2*$C$12</f>
+        <v>2359</v>
+      </c>
+      <c r="E2" s="66">
+        <v>10</v>
+      </c>
+      <c r="F2" s="65">
+        <f t="shared" ref="F2:F11" si="1">D2*E2</f>
+        <v>23590</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="66">
+        <v>2</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="67">
+        <v>900</v>
+      </c>
+      <c r="D3" s="65">
+        <f t="shared" si="0"/>
+        <v>30330.000000000004</v>
+      </c>
+      <c r="E3" s="66">
+        <v>4</v>
+      </c>
+      <c r="F3" s="65">
+        <f t="shared" si="1"/>
+        <v>121320.00000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="66">
+        <v>3</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="67">
+        <v>60</v>
+      </c>
+      <c r="D4" s="65">
+        <f t="shared" si="0"/>
+        <v>2022.0000000000002</v>
+      </c>
+      <c r="E4" s="66">
+        <v>3</v>
+      </c>
+      <c r="F4" s="65">
+        <f t="shared" si="1"/>
+        <v>6066.0000000000009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="66">
+        <v>4</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="67">
+        <v>150</v>
+      </c>
+      <c r="D5" s="65">
+        <f t="shared" si="0"/>
+        <v>5055</v>
+      </c>
+      <c r="E5" s="66">
+        <v>3</v>
+      </c>
+      <c r="F5" s="65">
+        <f t="shared" si="1"/>
+        <v>15165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="66">
+        <v>5</v>
+      </c>
+      <c r="B6" s="62" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="67">
+        <v>600</v>
+      </c>
+      <c r="D6" s="65">
+        <f t="shared" si="0"/>
+        <v>20220</v>
+      </c>
+      <c r="E6" s="66">
+        <v>2</v>
+      </c>
+      <c r="F6" s="65">
+        <f t="shared" si="1"/>
+        <v>40440</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="66">
+        <v>6</v>
+      </c>
+      <c r="B7" s="62" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="67">
+        <v>300</v>
+      </c>
+      <c r="D7" s="65">
+        <f t="shared" si="0"/>
+        <v>10110</v>
+      </c>
+      <c r="E7" s="66">
+        <v>3</v>
+      </c>
+      <c r="F7" s="65">
+        <f t="shared" si="1"/>
+        <v>30330</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="66">
+        <v>7</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="67">
+        <v>70</v>
+      </c>
+      <c r="D8" s="65">
+        <f t="shared" si="0"/>
+        <v>2359</v>
+      </c>
+      <c r="E8" s="66">
+        <v>11</v>
+      </c>
+      <c r="F8" s="65">
+        <f t="shared" si="1"/>
+        <v>25949</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="66">
+        <v>8</v>
+      </c>
+      <c r="B9" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="67">
+        <v>65</v>
+      </c>
+      <c r="D9" s="65">
+        <f t="shared" si="0"/>
+        <v>2190.5</v>
+      </c>
+      <c r="E9" s="66">
+        <v>9</v>
+      </c>
+      <c r="F9" s="65">
+        <f t="shared" si="1"/>
+        <v>19714.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="66">
+        <v>9</v>
+      </c>
+      <c r="B10" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="67">
+        <v>400</v>
+      </c>
+      <c r="D10" s="65">
+        <f t="shared" si="0"/>
+        <v>13480.000000000002</v>
+      </c>
+      <c r="E10" s="66">
+        <v>5</v>
+      </c>
+      <c r="F10" s="65">
+        <f t="shared" si="1"/>
+        <v>67400.000000000015</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="66">
+        <v>10</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" s="67">
+        <v>40</v>
+      </c>
+      <c r="D11" s="65">
+        <f t="shared" si="0"/>
+        <v>1348</v>
+      </c>
+      <c r="E11" s="66">
+        <v>12</v>
+      </c>
+      <c r="F11" s="65">
+        <f t="shared" si="1"/>
+        <v>16176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="62"/>
+      <c r="B12" s="64" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" s="63">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="D12" s="62"/>
+      <c r="E12" s="77" t="s">
+        <v>141</v>
+      </c>
+      <c r="F12" s="79">
+        <f>SUM(F2:F11)</f>
+        <v>366150.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="62"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="80"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F399BF-F833-46CB-809A-33C798A00AB6}">
   <dimension ref="B2"/>
   <sheetViews>
@@ -12592,7 +13109,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C1D099-EDBC-4374-8620-C8AD64462DC5}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -12606,11 +13123,11 @@
       <c r="A1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
@@ -12631,7 +13148,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F079FFA4-4433-4C73-8B0A-2779838F9B08}">
   <dimension ref="B4:C10"/>
   <sheetViews>
@@ -12642,7 +13159,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="70" t="s">
         <v>23</v>
       </c>
       <c r="C4" t="s">
@@ -12650,37 +13167,37 @@
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="35"/>
+      <c r="B5" s="70"/>
       <c r="C5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="35"/>
+      <c r="B6" s="70"/>
       <c r="C6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="35"/>
+      <c r="B7" s="70"/>
       <c r="C7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="35"/>
+      <c r="B8" s="70"/>
       <c r="C8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="35"/>
+      <c r="B9" s="70"/>
       <c r="C9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="35"/>
+      <c r="B10" s="70"/>
       <c r="C10" t="s">
         <v>17</v>
       </c>
@@ -12691,4 +13208,549 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC684FCF-FEB1-4B22-BAA3-87EF34D70492}">
+  <dimension ref="B3:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C3" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="71"/>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="71"/>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="71"/>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="71"/>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="71"/>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="71"/>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="71"/>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="B4:B11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16ECD2FE-37F0-42ED-8DCD-08A971AED461}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="11"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="73" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="72"/>
+      <c r="C5" s="73"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="72"/>
+      <c r="C6" s="73"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="72"/>
+      <c r="C7" s="73"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="72"/>
+      <c r="C8" s="73"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="72"/>
+      <c r="C9" s="73"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="72"/>
+      <c r="C10" s="73"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="72"/>
+      <c r="C11" s="73"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="72"/>
+      <c r="C12" s="73"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="72"/>
+      <c r="C13" s="73"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="72"/>
+      <c r="C14" s="73"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:B14"/>
+    <mergeCell ref="C3:C14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9829BEE-9376-4B08-B230-269B3649215E}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="15"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="14">
+        <v>250</v>
+      </c>
+      <c r="C2" s="13">
+        <f>PRODUCT(B2,1024)</f>
+        <v>256000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="C3" s="13">
+        <f>PRODUCT(B3,1024)</f>
+        <v>716.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="14">
+        <v>4.7</v>
+      </c>
+      <c r="C4" s="13">
+        <f>PRODUCT(B4,1024)</f>
+        <v>4812.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="14">
+        <v>16</v>
+      </c>
+      <c r="C5" s="13">
+        <f>PRODUCT(B5,1024)</f>
+        <v>16384</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="12"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D92D9D7-B7F4-4BBE-9165-76B875C2DD41}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="21">
+        <v>24</v>
+      </c>
+      <c r="C3" s="21">
+        <v>8</v>
+      </c>
+      <c r="D3" s="21">
+        <v>22</v>
+      </c>
+      <c r="E3" s="20">
+        <f t="shared" ref="E3:E13" si="0">PRODUCT(B3:D3)</f>
+        <v>4224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="21">
+        <v>16</v>
+      </c>
+      <c r="C4" s="21">
+        <v>7</v>
+      </c>
+      <c r="D4" s="21">
+        <v>18</v>
+      </c>
+      <c r="E4" s="20">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="21">
+        <v>36</v>
+      </c>
+      <c r="C5" s="21">
+        <v>8</v>
+      </c>
+      <c r="D5" s="21">
+        <v>20</v>
+      </c>
+      <c r="E5" s="20">
+        <f t="shared" si="0"/>
+        <v>5760</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="21">
+        <v>20</v>
+      </c>
+      <c r="C6" s="21">
+        <v>6</v>
+      </c>
+      <c r="D6" s="21">
+        <v>19</v>
+      </c>
+      <c r="E6" s="20">
+        <f t="shared" si="0"/>
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="21">
+        <v>19</v>
+      </c>
+      <c r="C7" s="21">
+        <v>7</v>
+      </c>
+      <c r="D7" s="21">
+        <v>21</v>
+      </c>
+      <c r="E7" s="20">
+        <f t="shared" si="0"/>
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="21">
+        <v>34</v>
+      </c>
+      <c r="C8" s="21">
+        <v>6</v>
+      </c>
+      <c r="D8" s="21">
+        <v>22</v>
+      </c>
+      <c r="E8" s="20">
+        <f t="shared" si="0"/>
+        <v>4488</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="21">
+        <v>30</v>
+      </c>
+      <c r="C9" s="21">
+        <v>7</v>
+      </c>
+      <c r="D9" s="21">
+        <v>20</v>
+      </c>
+      <c r="E9" s="20">
+        <f t="shared" si="0"/>
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="21">
+        <v>25</v>
+      </c>
+      <c r="C10" s="21">
+        <v>8</v>
+      </c>
+      <c r="D10" s="21">
+        <v>19</v>
+      </c>
+      <c r="E10" s="20">
+        <f t="shared" si="0"/>
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="21">
+        <v>31</v>
+      </c>
+      <c r="C11" s="21">
+        <v>8</v>
+      </c>
+      <c r="D11" s="21">
+        <v>22</v>
+      </c>
+      <c r="E11" s="20">
+        <f t="shared" si="0"/>
+        <v>5456</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="21">
+        <v>33</v>
+      </c>
+      <c r="C12" s="21">
+        <v>7</v>
+      </c>
+      <c r="D12" s="21">
+        <v>21</v>
+      </c>
+      <c r="E12" s="20">
+        <f t="shared" si="0"/>
+        <v>4851</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="21">
+        <v>15</v>
+      </c>
+      <c r="C13" s="21">
+        <v>6</v>
+      </c>
+      <c r="D13" s="21">
+        <v>19</v>
+      </c>
+      <c r="E13" s="20">
+        <f t="shared" si="0"/>
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="17">
+        <f>SUM(E3:E13)</f>
+        <v>41578</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>